--- a/4_aviation/energy_density/data/data.xlsx
+++ b/4_aviation/energy_density/data/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelweinold/github/phd_publication_figures/4_aviation/energy_density/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD6BFFF-F236-3A4C-83A2-52A59A3B66A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49275894-A4C9-CB4C-92DF-E4488997BBEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{B845ADF3-7D47-1941-B9F3-1A771EDB3806}"/>
+    <workbookView xWindow="17280" yWindow="760" windowWidth="17280" windowHeight="21580" xr2:uid="{B845ADF3-7D47-1941-B9F3-1A771EDB3806}"/>
   </bookViews>
   <sheets>
     <sheet name="Energy Density Fuels" sheetId="3" r:id="rId1"/>
@@ -21,9 +21,9 @@
   <definedNames>
     <definedName name="aviation_examples" localSheetId="2">'Electric Aircraft Examples'!$A$1:$F$5</definedName>
     <definedName name="aviation_requirements" localSheetId="3">'Electric Aircraft Requirements'!$A$1:$D$10</definedName>
-    <definedName name="fossil" localSheetId="0">'Energy Density Fuels'!$A$1:$D$23</definedName>
+    <definedName name="fossil" localSheetId="0">'Energy Density Fuels'!$A$1:$F$23</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="67">
   <si>
     <t>type</t>
   </si>
@@ -273,6 +273,15 @@
   </si>
   <si>
     <t>MJ/l</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://en.wikipedia.org/wiki/Energy_density </t>
+  </si>
+  <si>
+    <t>Wh/kg</t>
+  </si>
+  <si>
+    <t>Wh/l</t>
   </si>
 </sst>
 </file>
@@ -637,21 +646,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C26E2B2-A64B-9C42-B08A-A3CABA32DEEA}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E2" sqref="E2:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" customWidth="1"/>
+    <col min="6" max="6" width="39.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -659,13 +670,19 @@
         <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -673,13 +690,21 @@
         <v>32.5</v>
       </c>
       <c r="C2">
+        <f>B2*277.8</f>
+        <v>9028.5</v>
+      </c>
+      <c r="D2">
         <v>72.400000000000006</v>
       </c>
-      <c r="D2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <f>D2*277.8</f>
+        <v>20112.72</v>
+      </c>
+      <c r="F2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -687,13 +712,21 @@
         <v>24</v>
       </c>
       <c r="C3">
+        <f t="shared" ref="C3:C23" si="0">B3*277.8</f>
+        <v>6667.2000000000007</v>
+      </c>
+      <c r="D3">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <f t="shared" ref="E3:E23" si="1">D3*277.8</f>
+        <v>5556</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -701,13 +734,21 @@
         <v>36.6</v>
       </c>
       <c r="C4">
+        <f t="shared" si="0"/>
+        <v>10167.480000000001</v>
+      </c>
+      <c r="D4">
         <v>29.2</v>
       </c>
-      <c r="D4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>8111.76</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -715,13 +756,21 @@
         <v>46.2</v>
       </c>
       <c r="C5">
+        <f t="shared" si="0"/>
+        <v>12834.36</v>
+      </c>
+      <c r="D5">
         <v>37.299999999999997</v>
       </c>
-      <c r="D5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>10361.94</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -729,13 +778,21 @@
         <v>30</v>
       </c>
       <c r="C6">
+        <f t="shared" si="0"/>
+        <v>8334</v>
+      </c>
+      <c r="D6">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>6667.2000000000007</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -743,13 +800,21 @@
         <v>46.4</v>
       </c>
       <c r="C7">
+        <f t="shared" si="0"/>
+        <v>12889.92</v>
+      </c>
+      <c r="D7">
         <v>34.200000000000003</v>
       </c>
-      <c r="D7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>9500.760000000002</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -757,13 +822,21 @@
         <v>33.1</v>
       </c>
       <c r="C8">
+        <f t="shared" si="0"/>
+        <v>9195.18</v>
+      </c>
+      <c r="D8">
         <v>25.65</v>
       </c>
-      <c r="D8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>7125.57</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -771,13 +844,21 @@
         <v>15.55</v>
       </c>
       <c r="C9">
+        <f t="shared" si="0"/>
+        <v>4319.79</v>
+      </c>
+      <c r="D9">
         <v>23.9</v>
       </c>
-      <c r="D9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>6639.42</v>
+      </c>
+      <c r="F9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -785,13 +866,21 @@
         <v>19.5</v>
       </c>
       <c r="C10">
+        <f t="shared" si="0"/>
+        <v>5417.1</v>
+      </c>
+      <c r="D10">
         <v>19.3</v>
       </c>
-      <c r="D10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>5361.54</v>
+      </c>
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -799,13 +888,21 @@
         <v>143</v>
       </c>
       <c r="C11">
+        <f t="shared" si="0"/>
+        <v>39725.4</v>
+      </c>
+      <c r="D11">
         <v>1.0789999999999999E-2</v>
       </c>
-      <c r="D11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>2.9974620000000001</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -813,13 +910,21 @@
         <v>143</v>
       </c>
       <c r="C12">
+        <f t="shared" si="0"/>
+        <v>39725.4</v>
+      </c>
+      <c r="D12">
         <v>5.6</v>
       </c>
-      <c r="D12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>1555.68</v>
+      </c>
+      <c r="F12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -827,13 +932,21 @@
         <v>42.8</v>
       </c>
       <c r="C13">
+        <f t="shared" si="0"/>
+        <v>11889.84</v>
+      </c>
+      <c r="D13">
         <v>33</v>
       </c>
-      <c r="D13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>9167.4</v>
+      </c>
+      <c r="F13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -841,13 +954,21 @@
         <v>18.600000000000001</v>
       </c>
       <c r="C14">
+        <f t="shared" si="0"/>
+        <v>5167.0800000000008</v>
+      </c>
+      <c r="D14">
         <v>11.5</v>
       </c>
-      <c r="D14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>3194.7000000000003</v>
+      </c>
+      <c r="F14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -855,13 +976,21 @@
         <v>143</v>
       </c>
       <c r="C15">
+        <f t="shared" si="0"/>
+        <v>39725.4</v>
+      </c>
+      <c r="D15">
         <v>10.1</v>
       </c>
-      <c r="D15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>2805.78</v>
+      </c>
+      <c r="F15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -869,13 +998,21 @@
         <v>53.6</v>
       </c>
       <c r="C16">
+        <f t="shared" si="0"/>
+        <v>14890.080000000002</v>
+      </c>
+      <c r="D16">
         <v>22.2</v>
       </c>
-      <c r="D16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>6167.16</v>
+      </c>
+      <c r="F16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -883,13 +1020,21 @@
         <v>43.1</v>
       </c>
       <c r="C17">
+        <f t="shared" si="0"/>
+        <v>11973.18</v>
+      </c>
+      <c r="D17">
         <v>23</v>
       </c>
-      <c r="D17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>6389.4000000000005</v>
+      </c>
+      <c r="F17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -897,13 +1042,21 @@
         <v>65.2</v>
       </c>
       <c r="C18">
+        <f t="shared" si="0"/>
+        <v>18112.560000000001</v>
+      </c>
+      <c r="D18">
         <v>43.4</v>
       </c>
-      <c r="D18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>12056.52</v>
+      </c>
+      <c r="F18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -911,13 +1064,21 @@
         <v>49.6</v>
       </c>
       <c r="C19">
+        <f t="shared" si="0"/>
+        <v>13778.880000000001</v>
+      </c>
+      <c r="D19">
         <v>25.3</v>
       </c>
-      <c r="D19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>7028.34</v>
+      </c>
+      <c r="F19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -925,13 +1086,21 @@
         <v>49.1</v>
       </c>
       <c r="C20">
+        <f t="shared" si="0"/>
+        <v>13639.980000000001</v>
+      </c>
+      <c r="D20">
         <v>27.7</v>
       </c>
-      <c r="D20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>7695.06</v>
+      </c>
+      <c r="F20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -939,13 +1108,21 @@
         <v>19.7</v>
       </c>
       <c r="C21">
+        <f t="shared" si="0"/>
+        <v>5472.66</v>
+      </c>
+      <c r="D21">
         <v>15.6</v>
       </c>
-      <c r="D21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>4333.68</v>
+      </c>
+      <c r="F21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>60</v>
       </c>
@@ -953,13 +1130,21 @@
         <v>53.6</v>
       </c>
       <c r="C22">
+        <f t="shared" si="0"/>
+        <v>14890.080000000002</v>
+      </c>
+      <c r="D22">
         <v>3.6400000000000002E-2</v>
       </c>
-      <c r="D22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>10.111920000000001</v>
+      </c>
+      <c r="F22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>61</v>
       </c>
@@ -967,9 +1152,17 @@
         <v>53.6</v>
       </c>
       <c r="C23">
+        <f t="shared" si="0"/>
+        <v>14890.080000000002</v>
+      </c>
+      <c r="D23">
         <v>9</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>2500.2000000000003</v>
+      </c>
+      <c r="F23" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1110,7 +1303,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A2A797F-A70C-634C-87CC-6949F5EDCE04}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView zoomScale="134" workbookViewId="0"/>
+    <sheetView zoomScale="161" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>

--- a/4_aviation/energy_density/data/data.xlsx
+++ b/4_aviation/energy_density/data/data.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelweinold/github/phd_publication_figures/4_aviation/energy_density/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49275894-A4C9-CB4C-92DF-E4488997BBEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2619B10B-BFD1-F04A-8563-E132D641396A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17280" yWindow="760" windowWidth="17280" windowHeight="21580" xr2:uid="{B845ADF3-7D47-1941-B9F3-1A771EDB3806}"/>
+    <workbookView xWindow="17280" yWindow="760" windowWidth="17280" windowHeight="21580" activeTab="1" xr2:uid="{B845ADF3-7D47-1941-B9F3-1A771EDB3806}"/>
   </bookViews>
   <sheets>
     <sheet name="Energy Density Fuels" sheetId="3" r:id="rId1"/>
-    <sheet name="Energy Density Batteries" sheetId="4" r:id="rId2"/>
+    <sheet name="Energy Density Batteries (2011)" sheetId="4" r:id="rId2"/>
     <sheet name="Electric Aircraft Examples" sheetId="1" r:id="rId3"/>
     <sheet name="Electric Aircraft Requirements" sheetId="2" r:id="rId4"/>
   </sheets>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="85">
   <si>
     <t>type</t>
   </si>
@@ -282,16 +282,84 @@
   </si>
   <si>
     <t>Wh/l</t>
+  </si>
+  <si>
+    <t>technology</t>
+  </si>
+  <si>
+    <t>Lead-Acid</t>
+  </si>
+  <si>
+    <t>range lower [Wh/kg]</t>
+  </si>
+  <si>
+    <t>range higher [Wh/kg]</t>
+  </si>
+  <si>
+    <t>Ni-Cd</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/35104644</t>
+  </si>
+  <si>
+    <t>Ni-MH</t>
+  </si>
+  <si>
+    <t>PLiON</t>
+  </si>
+  <si>
+    <t>Li-metal</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/35104645</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/35104646</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/35104647</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/35104648</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/35104649</t>
+  </si>
+  <si>
+    <t>Li-ion</t>
+  </si>
+  <si>
+    <t>range lower [Wh/l]</t>
+  </si>
+  <si>
+    <t>range higher [Wh/l]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -314,14 +382,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -648,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C26E2B2-A64B-9C42-B08A-A3CABA32DEEA}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E23"/>
+    <sheetView zoomScale="117" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1174,12 +1245,166 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C730CE0-2479-7E43-807E-3BF76EDF0063}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>43</v>
+      </c>
+      <c r="D2">
+        <v>27</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3">
+        <v>26</v>
+      </c>
+      <c r="C3">
+        <v>66</v>
+      </c>
+      <c r="D3">
+        <v>60</v>
+      </c>
+      <c r="E3">
+        <v>190</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4">
+        <v>67</v>
+      </c>
+      <c r="C4">
+        <v>106</v>
+      </c>
+      <c r="D4">
+        <v>60</v>
+      </c>
+      <c r="E4">
+        <v>300</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5">
+        <v>108</v>
+      </c>
+      <c r="C5">
+        <v>177</v>
+      </c>
+      <c r="D5">
+        <v>222</v>
+      </c>
+      <c r="E5">
+        <v>405</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6">
+        <v>110</v>
+      </c>
+      <c r="C6">
+        <v>200</v>
+      </c>
+      <c r="D6">
+        <v>168</v>
+      </c>
+      <c r="E6">
+        <v>416</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7">
+        <v>170</v>
+      </c>
+      <c r="C7">
+        <v>235</v>
+      </c>
+      <c r="D7">
+        <v>247</v>
+      </c>
+      <c r="E7">
+        <v>437</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{B6C50729-B3FD-FE4F-8622-CC95E0A8A54B}"/>
+    <hyperlink ref="F3:F7" r:id="rId2" display="https://doi.org/10.1038/35104644" xr:uid="{725C808B-F424-D742-9437-51EDCFB5B2FD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/4_aviation/energy_density/data/data.xlsx
+++ b/4_aviation/energy_density/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelweinold/github/phd_publication_figures/4_aviation/energy_density/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2619B10B-BFD1-F04A-8563-E132D641396A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D91E04-7FEB-564D-A39B-60F675A89565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17280" yWindow="760" windowWidth="17280" windowHeight="21580" activeTab="1" xr2:uid="{B845ADF3-7D47-1941-B9F3-1A771EDB3806}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{B845ADF3-7D47-1941-B9F3-1A771EDB3806}"/>
   </bookViews>
   <sheets>
     <sheet name="Energy Density Fuels" sheetId="3" r:id="rId1"/>
@@ -230,21 +230,12 @@
     <t>Hydrazine</t>
   </si>
   <si>
-    <t>Hydrogen Gas</t>
-  </si>
-  <si>
-    <t>Hydrogen Gas (700 bar)</t>
-  </si>
-  <si>
     <t>Kerosene</t>
   </si>
   <si>
     <t>Liquid Ammonia</t>
   </si>
   <si>
-    <t>Liquid Hydrogen</t>
-  </si>
-  <si>
     <t>Liquid Natural Gas</t>
   </si>
   <si>
@@ -336,6 +327,15 @@
   </si>
   <si>
     <t>range higher [Wh/l]</t>
+  </si>
+  <si>
+    <t>H Gas</t>
+  </si>
+  <si>
+    <t>H (700 bar)</t>
+  </si>
+  <si>
+    <t>Liquid H</t>
   </si>
 </sst>
 </file>
@@ -719,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C26E2B2-A64B-9C42-B08A-A3CABA32DEEA}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -738,16 +738,16 @@
         <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -772,7 +772,7 @@
         <v>20112.72</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -953,7 +953,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="B11">
         <v>143</v>
@@ -975,7 +975,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="B12">
         <v>143</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B13">
         <v>42.8</v>
@@ -1019,7 +1019,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B14">
         <v>18.600000000000001</v>
@@ -1041,7 +1041,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="B15">
         <v>143</v>
@@ -1063,7 +1063,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B16">
         <v>53.6</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B17">
         <v>43.1</v>
@@ -1107,7 +1107,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B18">
         <v>65.2</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B19">
         <v>49.6</v>
@@ -1151,7 +1151,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B20">
         <v>49.1</v>
@@ -1173,7 +1173,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B21">
         <v>19.7</v>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B22">
         <v>53.6</v>
@@ -1217,7 +1217,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B23">
         <v>53.6</v>
@@ -1247,7 +1247,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C730CE0-2479-7E43-807E-3BF76EDF0063}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -1261,27 +1261,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" t="s">
         <v>67</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" t="s">
         <v>69</v>
-      </c>
-      <c r="C1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B2">
         <v>9</v>
@@ -1296,12 +1296,12 @@
         <v>100</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B3">
         <v>26</v>
@@ -1316,12 +1316,12 @@
         <v>190</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B4">
         <v>67</v>
@@ -1336,12 +1336,12 @@
         <v>300</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B5">
         <v>108</v>
@@ -1356,12 +1356,12 @@
         <v>405</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B6">
         <v>110</v>
@@ -1376,12 +1376,12 @@
         <v>416</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B7">
         <v>170</v>
@@ -1396,7 +1396,7 @@
         <v>437</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/4_aviation/energy_density/data/data.xlsx
+++ b/4_aviation/energy_density/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelweinold/github/phd_publication_figures/4_aviation/energy_density/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D91E04-7FEB-564D-A39B-60F675A89565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A07E46-1C05-D345-AE5B-59D36F8861C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{B845ADF3-7D47-1941-B9F3-1A771EDB3806}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{B845ADF3-7D47-1941-B9F3-1A771EDB3806}"/>
   </bookViews>
   <sheets>
     <sheet name="Energy Density Fuels" sheetId="3" r:id="rId1"/>
@@ -719,7 +719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C26E2B2-A64B-9C42-B08A-A3CABA32DEEA}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
+    <sheetView zoomScale="117" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -1247,8 +1247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C730CE0-2479-7E43-807E-3BF76EDF0063}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1404,6 +1404,7 @@
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{B6C50729-B3FD-FE4F-8622-CC95E0A8A54B}"/>
     <hyperlink ref="F3:F7" r:id="rId2" display="https://doi.org/10.1038/35104644" xr:uid="{725C808B-F424-D742-9437-51EDCFB5B2FD}"/>
+    <hyperlink ref="F7" r:id="rId3" xr:uid="{21810D50-78C1-1B41-941B-33C1AA6966E3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/4_aviation/energy_density/data/data.xlsx
+++ b/4_aviation/energy_density/data/data.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelweinold/github/phd_publication_figures/4_aviation/energy_density/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A07E46-1C05-D345-AE5B-59D36F8861C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E4F82A-551E-F545-904A-5A0E7BF482EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{B845ADF3-7D47-1941-B9F3-1A771EDB3806}"/>
+    <workbookView xWindow="17280" yWindow="760" windowWidth="17280" windowHeight="21580" firstSheet="1" activeTab="3" xr2:uid="{B845ADF3-7D47-1941-B9F3-1A771EDB3806}"/>
   </bookViews>
   <sheets>
     <sheet name="Energy Density Fuels" sheetId="3" r:id="rId1"/>
     <sheet name="Energy Density Batteries (2011)" sheetId="4" r:id="rId2"/>
     <sheet name="Electric Aircraft Examples" sheetId="1" r:id="rId3"/>
-    <sheet name="Electric Aircraft Requirements" sheetId="2" r:id="rId4"/>
+    <sheet name="Aircraft Electrification (ICCT)" sheetId="5" r:id="rId4"/>
+    <sheet name="Electric Aircraft Requirements" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="aviation_examples" localSheetId="2">'Electric Aircraft Examples'!$A$1:$F$5</definedName>
-    <definedName name="aviation_requirements" localSheetId="3">'Electric Aircraft Requirements'!$A$1:$D$10</definedName>
+    <definedName name="aviation_requirements" localSheetId="4">'Electric Aircraft Requirements'!$A$1:$D$10</definedName>
     <definedName name="fossil" localSheetId="0">'Energy Density Fuels'!$A$1:$F$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -81,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
   <si>
     <t>type</t>
   </si>
@@ -336,13 +337,34 @@
   </si>
   <si>
     <t>Liquid H</t>
+  </si>
+  <si>
+    <t>replacable commuter traffic, current EMF [%]</t>
+  </si>
+  <si>
+    <t>replacable commuter traffic, 15% EMF reduction [%]</t>
+  </si>
+  <si>
+    <t>replacable commuter traffic, 30% EMF reduction [%]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://web.archive.org/web/20220814163335/https://theicct.org/wp-content/uploads/2022/07/global-aviation-performance-analysis-regional-electric-aircraft-jul22-1.pdf-1.pdf </t>
+  </si>
+  <si>
+    <t>battery energy density, current EMF [Wh/kg]</t>
+  </si>
+  <si>
+    <t>battery energy density, 15% EMF reduction [Wh/kg]</t>
+  </si>
+  <si>
+    <t>battery energy density, 30% EMF reduction [Wh/kg]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -360,6 +382,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -386,10 +415,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1247,7 +1277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C730CE0-2479-7E43-807E-3BF76EDF0063}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -1526,6 +1556,639 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EC74511-5D70-DF41-8E76-21400F73FA0F}">
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>128.671496858371</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>137.115563839701</v>
+      </c>
+      <c r="D4">
+        <v>0.30221468458560702</v>
+      </c>
+      <c r="E4">
+        <v>22.517511950214899</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>190.19255629377901</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>198.63662327511</v>
+      </c>
+      <c r="D5">
+        <v>1.79881354081213</v>
+      </c>
+      <c r="E5">
+        <v>71.9756185551513</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>251.71361572918801</v>
+      </c>
+      <c r="B6">
+        <v>0.52216145800666403</v>
+      </c>
+      <c r="C6">
+        <v>249.90417280461699</v>
+      </c>
+      <c r="D6">
+        <v>8.4710765352582609</v>
+      </c>
+      <c r="E6">
+        <v>131.04838709677401</v>
+      </c>
+      <c r="F6">
+        <v>3.3185840707964598</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>313.23467516459698</v>
+      </c>
+      <c r="B7">
+        <v>3.4627056017226301</v>
+      </c>
+      <c r="C7">
+        <v>287.90247422060497</v>
+      </c>
+      <c r="D7">
+        <v>15.0892179416481</v>
+      </c>
+      <c r="E7">
+        <v>169.68553648197701</v>
+      </c>
+      <c r="F7">
+        <v>7.8418093218215397</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>374.75573460000601</v>
+      </c>
+      <c r="B8">
+        <v>9.1024401414104794</v>
+      </c>
+      <c r="C8">
+        <v>317.45670865526199</v>
+      </c>
+      <c r="D8">
+        <v>21.889726925582899</v>
+      </c>
+      <c r="E8">
+        <v>205.27124733187</v>
+      </c>
+      <c r="F8">
+        <v>12.9082714084239</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>432.657908186273</v>
+      </c>
+      <c r="B9">
+        <v>15.3880444374799</v>
+      </c>
+      <c r="C9">
+        <v>341.58261431620701</v>
+      </c>
+      <c r="D9">
+        <v>28.634091827561399</v>
+      </c>
+      <c r="E9">
+        <v>226.98456242672</v>
+      </c>
+      <c r="F9">
+        <v>18.957682125213399</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>484.52860535730298</v>
+      </c>
+      <c r="B10">
+        <v>21.924757136543601</v>
+      </c>
+      <c r="C10">
+        <v>365.70851997715101</v>
+      </c>
+      <c r="D10">
+        <v>35.371838118252498</v>
+      </c>
+      <c r="E10">
+        <v>245.68213931395201</v>
+      </c>
+      <c r="F10">
+        <v>24.477603939001501</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>526.74894026395702</v>
+      </c>
+      <c r="B11">
+        <v>28.846800300663599</v>
+      </c>
+      <c r="C11">
+        <v>390.43757327961998</v>
+      </c>
+      <c r="D11">
+        <v>42.261497296590299</v>
+      </c>
+      <c r="E11">
+        <v>261.96712563508999</v>
+      </c>
+      <c r="F11">
+        <v>30.087980107052399</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>561.73150347232604</v>
+      </c>
+      <c r="B12">
+        <v>35.586372415158102</v>
+      </c>
+      <c r="C12">
+        <v>420.59495535579998</v>
+      </c>
+      <c r="D12">
+        <v>49.076928042918802</v>
+      </c>
+      <c r="E12">
+        <v>276.44266903165601</v>
+      </c>
+      <c r="F12">
+        <v>35.631067060346801</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>600.33295252983805</v>
+      </c>
+      <c r="B13">
+        <v>42.6920222022449</v>
+      </c>
+      <c r="C13">
+        <v>455.57751856417002</v>
+      </c>
+      <c r="D13">
+        <v>55.839322954956401</v>
+      </c>
+      <c r="E13">
+        <v>290.918212428223</v>
+      </c>
+      <c r="F13">
+        <v>41.185185032453802</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>649.79105913477395</v>
+      </c>
+      <c r="B14">
+        <v>49.054056686231903</v>
+      </c>
+      <c r="C14">
+        <v>491.76637705558699</v>
+      </c>
+      <c r="D14">
+        <v>62.781428992164599</v>
+      </c>
+      <c r="E14">
+        <v>307.80634639088402</v>
+      </c>
+      <c r="F14">
+        <v>46.838582173873597</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>705.28064215494703</v>
+      </c>
+      <c r="B15">
+        <v>55.767456501359398</v>
+      </c>
+      <c r="C15">
+        <v>533.383564320716</v>
+      </c>
+      <c r="D15">
+        <v>69.516905402583902</v>
+      </c>
+      <c r="E15">
+        <v>327.71021856116403</v>
+      </c>
+      <c r="F15">
+        <v>52.155857683241003</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>758.35763460902501</v>
+      </c>
+      <c r="B16">
+        <v>62.642055834744802</v>
+      </c>
+      <c r="C16">
+        <v>579.22278507651095</v>
+      </c>
+      <c r="D16">
+        <v>76.402002881412798</v>
+      </c>
+      <c r="E16">
+        <v>348.21723837296702</v>
+      </c>
+      <c r="F16">
+        <v>57.555865833702399</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>815.05351291224497</v>
+      </c>
+      <c r="B17">
+        <v>69.530361196429496</v>
+      </c>
+      <c r="C17">
+        <v>632.90292517211299</v>
+      </c>
+      <c r="D17">
+        <v>82.876596192667193</v>
+      </c>
+      <c r="E17">
+        <v>368.72425818476898</v>
+      </c>
+      <c r="F17">
+        <v>62.959767284921199</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>876.57457234765297</v>
+      </c>
+      <c r="B18">
+        <v>75.598719310238096</v>
+      </c>
+      <c r="C18">
+        <v>694.42398460752099</v>
+      </c>
+      <c r="D18">
+        <v>88.838537419107794</v>
+      </c>
+      <c r="E18">
+        <v>389.23127799657198</v>
+      </c>
+      <c r="F18">
+        <v>68.359775435382602</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>938.095631783062</v>
+      </c>
+      <c r="B19">
+        <v>80.6431393248604</v>
+      </c>
+      <c r="C19">
+        <v>755.94504404293002</v>
+      </c>
+      <c r="D19">
+        <v>93.625999583744203</v>
+      </c>
+      <c r="E19">
+        <v>414.56347894056398</v>
+      </c>
+      <c r="F19">
+        <v>73.868328810959198</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>986.95059074647497</v>
+      </c>
+      <c r="B20">
+        <v>84.053930341693501</v>
+      </c>
+      <c r="C20">
+        <v>817.46610347833905</v>
+      </c>
+      <c r="D20">
+        <v>97.111801528502596</v>
+      </c>
+      <c r="E20">
+        <v>445.32400865826901</v>
+      </c>
+      <c r="F20">
+        <v>79.215046658592499</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <v>878.98716291374797</v>
+      </c>
+      <c r="D21">
+        <v>98.312483122388102</v>
+      </c>
+      <c r="E21">
+        <v>476.68768601749599</v>
+      </c>
+      <c r="F21">
+        <v>84.642307914355499</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <v>940.50822234915597</v>
+      </c>
+      <c r="D22">
+        <v>99.040283170316002</v>
+      </c>
+      <c r="E22">
+        <v>517.09857799957899</v>
+      </c>
+      <c r="F22">
+        <v>90.246582873502206</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <v>988.15688602952196</v>
+      </c>
+      <c r="D23">
+        <v>99.399810955730999</v>
+      </c>
+      <c r="E23">
+        <v>566.556684604515</v>
+      </c>
+      <c r="F23">
+        <v>94.627780686750398</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <v>616.01479120945203</v>
+      </c>
+      <c r="F24">
+        <v>97.912871898968604</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E25">
+        <v>665.47289781438803</v>
+      </c>
+      <c r="F25">
+        <v>98.987992659330899</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E26">
+        <v>714.93100441932404</v>
+      </c>
+      <c r="F26">
+        <v>99.685368287673995</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E27">
+        <v>764.38911102426096</v>
+      </c>
+      <c r="F27">
+        <v>99.785454604704796</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E28">
+        <v>813.84721762919696</v>
+      </c>
+      <c r="F28">
+        <v>99.837112058656103</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E29">
+        <v>863.30532423413399</v>
+      </c>
+      <c r="F29">
+        <v>99.837112058656103</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E30">
+        <v>912.76343083907</v>
+      </c>
+      <c r="F30">
+        <v>99.904912466967204</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E31">
+        <v>962.22153744400703</v>
+      </c>
+      <c r="F31">
+        <v>99.856483603887895</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E32">
+        <v>995.99780536932894</v>
+      </c>
+      <c r="F32">
+        <v>99.841524466181099</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G4" r:id="rId1" xr:uid="{EE64964D-0873-9C48-8876-0F585857FE5E}"/>
+    <hyperlink ref="G5:G10" r:id="rId2" display="https://web.archive.org/web/20220814163335/https://theicct.org/wp-content/uploads/2022/07/global-aviation-performance-analysis-regional-electric-aircraft-jul22-1.pdf-1.pdf " xr:uid="{642CAA47-7675-DD4E-B92C-A36FB7D004AA}"/>
+    <hyperlink ref="G11:G20" r:id="rId3" display="https://web.archive.org/web/20220814163335/https://theicct.org/wp-content/uploads/2022/07/global-aviation-performance-analysis-regional-electric-aircraft-jul22-1.pdf-1.pdf " xr:uid="{D2740111-E983-1A44-900D-63C987C1AEA7}"/>
+    <hyperlink ref="G2:G3" r:id="rId4" display="https://web.archive.org/web/20220814163335/https://theicct.org/wp-content/uploads/2022/07/global-aviation-performance-analysis-regional-electric-aircraft-jul22-1.pdf-1.pdf " xr:uid="{C22535D5-39B7-5C4C-8101-73FAE3E8CBB7}"/>
+    <hyperlink ref="G21:G32" r:id="rId5" display="https://web.archive.org/web/20220814163335/https://theicct.org/wp-content/uploads/2022/07/global-aviation-performance-analysis-regional-electric-aircraft-jul22-1.pdf-1.pdf " xr:uid="{036948AA-E5BD-1F43-A935-83F7C68B7F95}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A2A797F-A70C-634C-87CC-6949F5EDCE04}">
   <dimension ref="A1:D10"/>
   <sheetViews>

--- a/4_aviation/energy_density/data/data.xlsx
+++ b/4_aviation/energy_density/data/data.xlsx
@@ -8,20 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelweinold/github/phd_publication_figures/4_aviation/energy_density/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E4F82A-551E-F545-904A-5A0E7BF482EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C12ACAF-7D80-6948-B525-62DE3B9638D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17280" yWindow="760" windowWidth="17280" windowHeight="21580" firstSheet="1" activeTab="3" xr2:uid="{B845ADF3-7D47-1941-B9F3-1A771EDB3806}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="3" xr2:uid="{B845ADF3-7D47-1941-B9F3-1A771EDB3806}"/>
   </bookViews>
   <sheets>
     <sheet name="Energy Density Fuels" sheetId="3" r:id="rId1"/>
     <sheet name="Energy Density Batteries (2011)" sheetId="4" r:id="rId2"/>
-    <sheet name="Electric Aircraft Examples" sheetId="1" r:id="rId3"/>
-    <sheet name="Aircraft Electrification (ICCT)" sheetId="5" r:id="rId4"/>
-    <sheet name="Electric Aircraft Requirements" sheetId="2" r:id="rId5"/>
+    <sheet name="Energy Batteries Limits" sheetId="6" r:id="rId3"/>
+    <sheet name="Li-ion Historical" sheetId="7" r:id="rId4"/>
+    <sheet name="Electric Aircraft Examples" sheetId="1" r:id="rId5"/>
+    <sheet name="Aircraft Electrification (ICCT)" sheetId="5" r:id="rId6"/>
+    <sheet name="Electric Aircraft Requirements" sheetId="2" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="aviation_examples" localSheetId="2">'Electric Aircraft Examples'!$A$1:$F$5</definedName>
-    <definedName name="aviation_requirements" localSheetId="4">'Electric Aircraft Requirements'!$A$1:$D$10</definedName>
+    <definedName name="aviation_examples" localSheetId="4">'Electric Aircraft Examples'!$A$1:$F$5</definedName>
+    <definedName name="aviation_requirements" localSheetId="6">'Electric Aircraft Requirements'!$A$1:$H$2</definedName>
     <definedName name="fossil" localSheetId="0">'Energy Density Fuels'!$A$1:$F$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -42,6 +44,42 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={7205AAD2-4453-7847-B493-DBA5D2FEDEFC}</author>
+    <author>tc={CD577A49-61B9-B649-818D-138C91068D14}</author>
+    <author>tc={2CEC93DF-3710-E745-899F-345178B4E05D}</author>
+  </authors>
+  <commentList>
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{7205AAD2-4453-7847-B493-DBA5D2FEDEFC}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    300-400</t>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="1" shapeId="0" xr:uid="{CD577A49-61B9-B649-818D-138C91068D14}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    300-400</t>
+      </text>
+    </comment>
+    <comment ref="C4" authorId="2" shapeId="0" xr:uid="{2CEC93DF-3710-E745-899F-345178B4E05D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    300-400</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
@@ -82,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="119">
   <si>
     <t>type</t>
   </si>
@@ -135,69 +173,18 @@
     <t>regional</t>
   </si>
   <si>
-    <t xml:space="preserve"> 600Wh/kg</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://doi.org/10.1021/acsenergylett.9b02574 (figure 1)</t>
-  </si>
-  <si>
-    <t>narrow-body</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 820Wh/kg</t>
-  </si>
-  <si>
-    <t>wide-body</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1280Wh/kg</t>
-  </si>
-  <si>
-    <t>lower_range_all_classes</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10E3Wh/kg</t>
-  </si>
-  <si>
     <t xml:space="preserve"> https://doi.org/10.1038/s41586-021-04139-1 (figure 2)</t>
   </si>
   <si>
-    <t>upper_range_all_classes</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10E4h/kg</t>
-  </si>
-  <si>
     <t>commuter</t>
   </si>
   <si>
-    <t xml:space="preserve"> 650Wh/kh</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://web.archive.org/web/20230320161833/https://theicct.org/aviation-global-expecting-electric-jul22/ (table 2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1500Wh/kh</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://web.archive.org/web/20230320161833/https://theicct.org/aviation-global-expecting-electric-jul22/  (table 2)</t>
-  </si>
-  <si>
     <t>narrowbody</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2300Wh/kh</t>
-  </si>
-  <si>
     <t>widebody</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5100Wh/kh</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://web.archive.org/web/20230320161833/https://theicct.org/aviation-global-expecting-electric-jul22/ (table 2) </t>
-  </si>
-  <si>
     <t>substance</t>
   </si>
   <si>
@@ -351,20 +338,152 @@
     <t xml:space="preserve">https://web.archive.org/web/20220814163335/https://theicct.org/wp-content/uploads/2022/07/global-aviation-performance-analysis-regional-electric-aircraft-jul22-1.pdf-1.pdf </t>
   </si>
   <si>
-    <t>battery energy density, current EMF [Wh/kg]</t>
-  </si>
-  <si>
-    <t>battery energy density, 15% EMF reduction [Wh/kg]</t>
-  </si>
-  <si>
-    <t>battery energy density, 30% EMF reduction [Wh/kg]</t>
+    <t>battery energy density, commuter traffic, current EMF [Wh/kg]</t>
+  </si>
+  <si>
+    <t>battery energy density, commuter traffic, 15% EMF reduction [Wh/kg]</t>
+  </si>
+  <si>
+    <t>battery energy density, commuter traffic, 30% EMF reduction [Wh/kg]</t>
+  </si>
+  <si>
+    <t>battery energy density, turboprop traffic, current EMF [Wh/kg]</t>
+  </si>
+  <si>
+    <t>replacable turboprop traffic, current EMF [%]</t>
+  </si>
+  <si>
+    <t>battery energy density, turboprop traffic, 15% EMF reduction [Wh/kg]</t>
+  </si>
+  <si>
+    <t>replacable turboprop traffic, 15% EMF reduction [%]</t>
+  </si>
+  <si>
+    <t>battery energy density, turboprop traffic, 30% EMF reduction [Wh/kg]</t>
+  </si>
+  <si>
+    <t>replacable turboprop traffic, 30% EMF reduction [%]</t>
+  </si>
+  <si>
+    <t>ICCT</t>
+  </si>
+  <si>
+    <t>authors</t>
+  </si>
+  <si>
+    <t>Bills et al.</t>
+  </si>
+  <si>
+    <t>range [nm]</t>
+  </si>
+  <si>
+    <t>pax [#]</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/acsenergylett.9b02574</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/acsenergylett.9b02575</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/acsenergylett.9b02576</t>
+  </si>
+  <si>
+    <t>30-75</t>
+  </si>
+  <si>
+    <t>200-400</t>
+  </si>
+  <si>
+    <t>&gt;2000</t>
+  </si>
+  <si>
+    <t>75-200?</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.paerosci.2018.11.002</t>
+  </si>
+  <si>
+    <t>Gnadt et al.</t>
+  </si>
+  <si>
+    <t>200-1600</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://web.archive.org/web/20230320161833/https://theicct.org/aviation-global-expecting-electric-jul22/</t>
+  </si>
+  <si>
+    <t>Viswanathan et al.</t>
+  </si>
+  <si>
+    <t>air taxi</t>
+  </si>
+  <si>
+    <t>300-400</t>
+  </si>
+  <si>
+    <t>1200-1800</t>
+  </si>
+  <si>
+    <t>1800-2500</t>
+  </si>
+  <si>
+    <t>150-180</t>
+  </si>
+  <si>
+    <t>chemistry</t>
+  </si>
+  <si>
+    <t>limit [Wh/kg]</t>
+  </si>
+  <si>
+    <t>limit [Wh/l]</t>
+  </si>
+  <si>
+    <t>https://www.doitpoms.ac.uk/tlplib/batteries/batteries_lithium.php#:~:text=Li%2Dion%20battery&amp;text=Thus%20the%20maximum%20theoretical%20specific,components%20are%20taken%20into%20account.</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>Si/O2</t>
+  </si>
+  <si>
+    <t>Li/O2</t>
+  </si>
+  <si>
+    <t>Al/O2</t>
+  </si>
+  <si>
+    <t>Mg/O2</t>
+  </si>
+  <si>
+    <t>Zn/O2</t>
+  </si>
+  <si>
+    <t>Na/O2</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/batteries4010005</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1016/j.ensm.2019.12.024 </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s10008-017-3610-7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -392,6 +511,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -436,6 +561,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Michael Weinold" id="{30290BA5-A830-7545-8C79-4802F246EBC5}" userId="8fccafa55074b4ee" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -745,6 +876,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C2" dT="2023-07-07T11:57:20.74" personId="{30290BA5-A830-7545-8C79-4802F246EBC5}" id="{7205AAD2-4453-7847-B493-DBA5D2FEDEFC}">
+    <text>300-400</text>
+  </threadedComment>
+  <threadedComment ref="C3" dT="2023-07-07T11:57:20.74" personId="{30290BA5-A830-7545-8C79-4802F246EBC5}" id="{CD577A49-61B9-B649-818D-138C91068D14}">
+    <text>300-400</text>
+  </threadedComment>
+  <threadedComment ref="C4" dT="2023-07-07T11:57:20.74" personId="{30290BA5-A830-7545-8C79-4802F246EBC5}" id="{2CEC93DF-3710-E745-899F-345178B4E05D}">
+    <text>300-400</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C26E2B2-A64B-9C42-B08A-A3CABA32DEEA}">
   <dimension ref="A1:F23"/>
@@ -765,19 +910,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -785,7 +930,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>32.5</v>
@@ -802,12 +947,12 @@
         <v>20112.72</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <v>24</v>
@@ -824,12 +969,12 @@
         <v>5556</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B4">
         <v>36.6</v>
@@ -846,12 +991,12 @@
         <v>8111.76</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>46.2</v>
@@ -868,12 +1013,12 @@
         <v>10361.94</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B6">
         <v>30</v>
@@ -890,12 +1035,12 @@
         <v>6667.2000000000007</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B7">
         <v>46.4</v>
@@ -912,12 +1057,12 @@
         <v>9500.760000000002</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B8">
         <v>33.1</v>
@@ -934,12 +1079,12 @@
         <v>7125.57</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B9">
         <v>15.55</v>
@@ -956,12 +1101,12 @@
         <v>6639.42</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B10">
         <v>19.5</v>
@@ -978,12 +1123,12 @@
         <v>5361.54</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="B11">
         <v>143</v>
@@ -1000,12 +1145,12 @@
         <v>2.9974620000000001</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B12">
         <v>143</v>
@@ -1022,12 +1167,12 @@
         <v>1555.68</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B13">
         <v>42.8</v>
@@ -1044,12 +1189,12 @@
         <v>9167.4</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B14">
         <v>18.600000000000001</v>
@@ -1066,12 +1211,12 @@
         <v>3194.7000000000003</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B15">
         <v>143</v>
@@ -1088,12 +1233,12 @@
         <v>2805.78</v>
       </c>
       <c r="F15" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B16">
         <v>53.6</v>
@@ -1110,12 +1255,12 @@
         <v>6167.16</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B17">
         <v>43.1</v>
@@ -1132,12 +1277,12 @@
         <v>6389.4000000000005</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B18">
         <v>65.2</v>
@@ -1154,12 +1299,12 @@
         <v>12056.52</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B19">
         <v>49.6</v>
@@ -1176,12 +1321,12 @@
         <v>7028.34</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B20">
         <v>49.1</v>
@@ -1198,12 +1343,12 @@
         <v>7695.06</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B21">
         <v>19.7</v>
@@ -1220,12 +1365,12 @@
         <v>4333.68</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B22">
         <v>53.6</v>
@@ -1242,12 +1387,12 @@
         <v>10.111920000000001</v>
       </c>
       <c r="F22" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B23">
         <v>53.6</v>
@@ -1264,7 +1409,7 @@
         <v>2500.2000000000003</v>
       </c>
       <c r="F23" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1278,7 +1423,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1291,27 +1436,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" t="s">
         <v>64</v>
       </c>
-      <c r="B1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" t="s">
-        <v>81</v>
-      </c>
       <c r="F1" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="B2">
         <v>9</v>
@@ -1326,12 +1471,12 @@
         <v>100</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="B3">
         <v>26</v>
@@ -1346,12 +1491,12 @@
         <v>190</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="B4">
         <v>67</v>
@@ -1366,12 +1511,12 @@
         <v>300</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B5">
         <v>108</v>
@@ -1386,12 +1531,12 @@
         <v>405</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="B6">
         <v>110</v>
@@ -1406,12 +1551,12 @@
         <v>416</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="B7">
         <v>170</v>
@@ -1426,7 +1571,7 @@
         <v>437</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1441,6 +1586,674 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3DF2F86-30C6-2246-A264-173C0F9F5AEF}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView zoomScale="142" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2">
+        <v>460</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3">
+        <v>9930</v>
+      </c>
+      <c r="C3">
+        <v>3750</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4">
+        <v>7990</v>
+      </c>
+      <c r="C4">
+        <v>3460</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5">
+        <v>6790</v>
+      </c>
+      <c r="C5">
+        <v>2790</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6">
+        <v>6670</v>
+      </c>
+      <c r="C6">
+        <v>2850</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7">
+        <v>6100</v>
+      </c>
+      <c r="C7">
+        <v>1090</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8">
+        <v>4430</v>
+      </c>
+      <c r="C8">
+        <v>1580</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" location=":~:text=Li%2Dion%20battery&amp;text=Thus%20the%20maximum%20theoretical%20specific,components%20are%20taken%20into%20account." xr:uid="{B398401B-B862-7040-AEAD-EF88381A4AF4}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{CFBCED84-6E2E-BB4E-8B74-7B7A913846F0}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{845753CA-C372-A847-9D2E-51E87050C372}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{6E6A1C27-FBCF-694E-990C-D54748C1DBD1}"/>
+    <hyperlink ref="D7" r:id="rId5" xr:uid="{3C7FB15D-050F-B842-B66F-1D8D36AD6653}"/>
+    <hyperlink ref="D6" r:id="rId6" xr:uid="{DB6F0900-2AA6-3F40-AA51-B9411AB8589A}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{40E89A64-4E8A-C14F-B712-91C6F69946DF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC64D6C8-8DB1-3747-BC7A-0FC1D0980146}">
+  <dimension ref="A1:G57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1991</v>
+      </c>
+      <c r="B2">
+        <v>200.60598415536899</v>
+      </c>
+      <c r="C2">
+        <v>80.045807455336401</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1992</v>
+      </c>
+      <c r="B3">
+        <v>209.39421596555701</v>
+      </c>
+      <c r="C3">
+        <v>90.004895203826905</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1993</v>
+      </c>
+      <c r="B4">
+        <v>249.532024553052</v>
+      </c>
+      <c r="C4">
+        <v>108.145270542593</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1994</v>
+      </c>
+      <c r="B5">
+        <v>260.33870804178002</v>
+      </c>
+      <c r="C5">
+        <v>113.02397442092099</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1995</v>
+      </c>
+      <c r="B6">
+        <v>271.53063952577099</v>
+      </c>
+      <c r="C6">
+        <v>114.33255585978399</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1996</v>
+      </c>
+      <c r="B7">
+        <v>281.63472264476201</v>
+      </c>
+      <c r="C7">
+        <v>119.39865363115101</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1997</v>
+      </c>
+      <c r="B8">
+        <v>291.73460467588001</v>
+      </c>
+      <c r="C8">
+        <v>123.176754589949</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1998</v>
+      </c>
+      <c r="B9">
+        <v>321.25966667008498</v>
+      </c>
+      <c r="C9">
+        <v>135.324341682723</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1999</v>
+      </c>
+      <c r="B10">
+        <v>343.29676328121298</v>
+      </c>
+      <c r="C10">
+        <v>143.14367295772601</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2000</v>
+      </c>
+      <c r="B11">
+        <v>385.42219611216598</v>
+      </c>
+      <c r="C11">
+        <v>159.27390731163101</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2001</v>
+      </c>
+      <c r="B12">
+        <v>428.03329922283302</v>
+      </c>
+      <c r="C12">
+        <v>172.31122356857799</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2002</v>
+      </c>
+      <c r="B13">
+        <v>471.02385813408699</v>
+      </c>
+      <c r="C13">
+        <v>187.98594582341599</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2003</v>
+      </c>
+      <c r="B14">
+        <v>481.46650202520902</v>
+      </c>
+      <c r="C14">
+        <v>192.173182546031</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2004</v>
+      </c>
+      <c r="B15">
+        <v>515.42864420090405</v>
+      </c>
+      <c r="C15">
+        <v>202.22087009430999</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2005</v>
+      </c>
+      <c r="B16">
+        <v>521.17640015492395</v>
+      </c>
+      <c r="C16">
+        <v>210.20906651843299</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2006</v>
+      </c>
+      <c r="B17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2007</v>
+      </c>
+      <c r="B18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2008</v>
+      </c>
+      <c r="B19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19">
+        <v>226.980835847149</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2009</v>
+      </c>
+      <c r="B20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2010</v>
+      </c>
+      <c r="B21">
+        <v>620.61496912344705</v>
+      </c>
+      <c r="C21">
+        <v>225.07183179528701</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2011</v>
+      </c>
+      <c r="B22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2012</v>
+      </c>
+      <c r="B23">
+        <v>676.32085995335103</v>
+      </c>
+      <c r="C23">
+        <v>243.03823141669099</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2013</v>
+      </c>
+      <c r="B24">
+        <v>678.04111490050195</v>
+      </c>
+      <c r="C24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2014</v>
+      </c>
+      <c r="B25">
+        <v>677.57465128928402</v>
+      </c>
+      <c r="C25">
+        <v>248.24392387519799</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2015</v>
+      </c>
+      <c r="B26">
+        <v>697.46292746281699</v>
+      </c>
+      <c r="C26">
+        <v>256.00175776628402</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2016</v>
+      </c>
+      <c r="B27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2017</v>
+      </c>
+      <c r="B28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28">
+        <v>249.15174466129901</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2018</v>
+      </c>
+      <c r="B29">
+        <v>728.06772705625701</v>
+      </c>
+      <c r="C29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2019</v>
+      </c>
+      <c r="B30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2020</v>
+      </c>
+      <c r="B31">
+        <v>803.94736842105203</v>
+      </c>
+      <c r="C31">
+        <v>279.90868924762299</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2021</v>
+      </c>
+      <c r="B32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32">
+        <v>301.98237885462498</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2022</v>
+      </c>
+      <c r="B33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2026</v>
+      </c>
+      <c r="B34">
+        <v>1003.50877192982</v>
+      </c>
+      <c r="C34">
+        <v>401.32158590308302</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2031</v>
+      </c>
+      <c r="B35">
+        <v>1203.07017543859</v>
+      </c>
+      <c r="C35">
+        <v>503.08370044052799</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="55" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F55" t="s">
+        <v>116</v>
+      </c>
+      <c r="G55" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="56" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G56" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F57" s="2"/>
+      <c r="G57" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D19" r:id="rId1" xr:uid="{E0965DC1-EF4E-FA46-9788-033CE01408C4}"/>
+    <hyperlink ref="D28" r:id="rId2" xr:uid="{4370197B-A03D-3A4B-ABA1-1E8C20508794}"/>
+    <hyperlink ref="D31" r:id="rId3" xr:uid="{B1B396A2-7AD0-6C4D-B805-177AAC263178}"/>
+    <hyperlink ref="D32" r:id="rId4" xr:uid="{AC43E45D-9E36-D243-8FB8-3AFFB8082235}"/>
+    <hyperlink ref="D34" r:id="rId5" xr:uid="{1558077D-08F0-C24A-8D01-8883496C33B9}"/>
+    <hyperlink ref="D35" r:id="rId6" xr:uid="{0D78D834-0E27-FF46-8A99-30234CF1FE82}"/>
+    <hyperlink ref="D29" r:id="rId7" xr:uid="{BB2893D7-3DA1-6E47-B85C-3786761A7E6A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5F756C-0615-A540-9FE1-321BA5D15B7B}">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -1555,40 +2368,58 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EC74511-5D70-DF41-8E76-21400F73FA0F}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="E1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="D1" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="F1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="G1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="H1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="L1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1607,11 +2438,29 @@
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10</v>
       </c>
@@ -1630,11 +2479,29 @@
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>10</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>128.671496858371</v>
       </c>
@@ -1653,11 +2520,29 @@
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G4" s="3">
+        <v>330.91573219493102</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>211.492499173255</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>30.5482067161713</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>190.19255629377901</v>
       </c>
@@ -1676,11 +2561,29 @@
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G5" s="3">
+        <v>392.43679163034</v>
+      </c>
+      <c r="H5">
+        <v>7.75973103794598E-2</v>
+      </c>
+      <c r="I5">
+        <v>273.01355860866403</v>
+      </c>
+      <c r="J5">
+        <v>0.20231179729054799</v>
+      </c>
+      <c r="K5">
+        <v>92.069266151579995</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>251.71361572918801</v>
       </c>
@@ -1699,11 +2602,29 @@
       <c r="F6">
         <v>3.3185840707964598</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <v>455.64516129032199</v>
+      </c>
+      <c r="H6">
+        <v>1.1037527593819101</v>
+      </c>
+      <c r="I6">
+        <v>334.534618044073</v>
+      </c>
+      <c r="J6">
+        <v>2.9035772470346402</v>
+      </c>
+      <c r="K6">
+        <v>153.590325586988</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>313.23467516459698</v>
       </c>
@@ -1722,11 +2643,29 @@
       <c r="F7">
         <v>7.8418093218215397</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <v>502.01612903225799</v>
+      </c>
+      <c r="H7">
+        <v>1.98675496688743</v>
+      </c>
+      <c r="I7">
+        <v>391.23049634729199</v>
+      </c>
+      <c r="J7">
+        <v>7.1468894238242697</v>
+      </c>
+      <c r="K7">
+        <v>215.111385022397</v>
+      </c>
+      <c r="L7">
+        <v>0.34543883898429301</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>374.75573460000601</v>
       </c>
@@ -1745,11 +2684,29 @@
       <c r="F8">
         <v>12.9082714084239</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <v>602.822580645161</v>
+      </c>
+      <c r="H8">
+        <v>7.7262693156733002</v>
+      </c>
+      <c r="I8">
+        <v>431.64138832937499</v>
+      </c>
+      <c r="J8">
+        <v>13.1428356879373</v>
+      </c>
+      <c r="K8">
+        <v>273.01355860866403</v>
+      </c>
+      <c r="L8">
+        <v>3.9697386772061298</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>432.657908186273</v>
       </c>
@@ -1768,11 +2725,29 @@
       <c r="F9">
         <v>18.957682125213399</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <v>636.71158644740399</v>
+      </c>
+      <c r="H9">
+        <v>11.7532438810128</v>
+      </c>
+      <c r="I9">
+        <v>461.19562276403201</v>
+      </c>
+      <c r="J9">
+        <v>18.575066502903901</v>
+      </c>
+      <c r="K9">
+        <v>314.63074587379299</v>
+      </c>
+      <c r="L9">
+        <v>10.7708987818602</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>484.52860535730298</v>
       </c>
@@ -1791,11 +2766,29 @@
       <c r="F10">
         <v>24.477603939001501</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <v>693.40746475062303</v>
+      </c>
+      <c r="H10">
+        <v>18.350185923683899</v>
+      </c>
+      <c r="I10">
+        <v>490.74985719868903</v>
+      </c>
+      <c r="J10">
+        <v>24.000913450559501</v>
+      </c>
+      <c r="K10">
+        <v>342.97868502540302</v>
+      </c>
+      <c r="L10">
+        <v>17.7213702080407</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>526.74894026395702</v>
       </c>
@@ -1814,11 +2807,29 @@
       <c r="F11">
         <v>30.087980107052399</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G11">
+        <v>746.48445720470102</v>
+      </c>
+      <c r="H11">
+        <v>25.191205951653501</v>
+      </c>
+      <c r="I11">
+        <v>519.09779635029895</v>
+      </c>
+      <c r="J11">
+        <v>29.4764913945389</v>
+      </c>
+      <c r="K11">
+        <v>370.723476535489</v>
+      </c>
+      <c r="L11">
+        <v>24.532104808522899</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>561.73150347232604</v>
       </c>
@@ -1837,11 +2848,29 @@
       <c r="F12">
         <v>35.631067060346801</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G12">
+        <v>796.54571145116097</v>
+      </c>
+      <c r="H12">
+        <v>31.859674243780201</v>
+      </c>
+      <c r="I12">
+        <v>546.84258786038504</v>
+      </c>
+      <c r="J12">
+        <v>34.9980102127207</v>
+      </c>
+      <c r="K12">
+        <v>397.86512040405199</v>
+      </c>
+      <c r="L12">
+        <v>31.247303272879901</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>600.33295252983805</v>
       </c>
@@ -1860,11 +2889,29 @@
       <c r="F13">
         <v>41.185185032453802</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <v>845.40067041457405</v>
+      </c>
+      <c r="H13">
+        <v>38.5561309196842</v>
+      </c>
+      <c r="I13">
+        <v>574.58737937047101</v>
+      </c>
+      <c r="J13">
+        <v>40.510915116989501</v>
+      </c>
+      <c r="K13">
+        <v>423.800468989568</v>
+      </c>
+      <c r="L13">
+        <v>38.001394863692198</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>649.79105913477395</v>
       </c>
@@ -1883,11 +2930,29 @@
       <c r="F14">
         <v>46.838582173873597</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G14">
+        <v>894.85877701950994</v>
+      </c>
+      <c r="H14">
+        <v>45.311394649142997</v>
+      </c>
+      <c r="I14">
+        <v>602.33217088055699</v>
+      </c>
+      <c r="J14">
+        <v>46.000849584157201</v>
+      </c>
+      <c r="K14">
+        <v>449.13266993355899</v>
+      </c>
+      <c r="L14">
+        <v>44.7154622080404</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>705.28064215494703</v>
       </c>
@@ -1906,11 +2971,29 @@
       <c r="F15">
         <v>52.155857683241003</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <v>946.72947419054196</v>
+      </c>
+      <c r="H15">
+        <v>52.001876276824902</v>
+      </c>
+      <c r="I15">
+        <v>630.07696239064398</v>
+      </c>
+      <c r="J15">
+        <v>51.355832733355903</v>
+      </c>
+      <c r="K15">
+        <v>474.46487087755099</v>
+      </c>
+      <c r="L15">
+        <v>51.426384790166402</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>758.35763460902501</v>
       </c>
@@ -1929,11 +3012,29 @@
       <c r="F16">
         <v>57.555865833702399</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G16">
+        <v>1002.01612903225</v>
+      </c>
+      <c r="H16">
+        <v>58.940397350993301</v>
+      </c>
+      <c r="I16">
+        <v>658.42490154225402</v>
+      </c>
+      <c r="J16">
+        <v>56.822796763422403</v>
+      </c>
+      <c r="K16">
+        <v>502.81281002916103</v>
+      </c>
+      <c r="L16">
+        <v>58.491576931860102</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>815.05351291224497</v>
       </c>
@@ -1952,11 +3053,23 @@
       <c r="F17">
         <v>62.959767284921199</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I17">
+        <v>687.37598833538698</v>
+      </c>
+      <c r="J17">
+        <v>62.3949223258426</v>
+      </c>
+      <c r="K17">
+        <v>537.79537323753095</v>
+      </c>
+      <c r="L17">
+        <v>64.935398832264497</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>876.57457234765297</v>
       </c>
@@ -1975,11 +3088,23 @@
       <c r="F18">
         <v>68.359775435382602</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I18">
+        <v>725.97743739289899</v>
+      </c>
+      <c r="J18">
+        <v>67.825061873931404</v>
+      </c>
+      <c r="K18">
+        <v>576.39682229504206</v>
+      </c>
+      <c r="L18">
+        <v>71.721009517167303</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>938.095631783062</v>
       </c>
@@ -1998,11 +3123,23 @@
       <c r="F19">
         <v>73.868328810959198</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I19">
+        <v>774.22924871478801</v>
+      </c>
+      <c r="J19">
+        <v>73.208973417354301</v>
+      </c>
+      <c r="K19">
+        <v>624.64863361693097</v>
+      </c>
+      <c r="L19">
+        <v>78.655898133804001</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>986.95059074647497</v>
       </c>
@@ -2021,11 +3158,23 @@
       <c r="F20">
         <v>79.215046658592499</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I20">
+        <v>827.90938881038903</v>
+      </c>
+      <c r="J20">
+        <v>78.634867536443195</v>
+      </c>
+      <c r="K20">
+        <v>684.36025012776895</v>
+      </c>
+      <c r="L20">
+        <v>85.191511783669498</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C21">
         <v>878.98716291374797</v>
       </c>
@@ -2038,11 +3187,23 @@
       <c r="F21">
         <v>84.642307914355499</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I21">
+        <v>888.22415296275096</v>
+      </c>
+      <c r="J21">
+        <v>84.009266174144003</v>
+      </c>
+      <c r="K21">
+        <v>745.88130956317798</v>
+      </c>
+      <c r="L21">
+        <v>90.178109106953997</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C22">
         <v>940.50822234915597</v>
       </c>
@@ -2055,11 +3216,23 @@
       <c r="F22">
         <v>90.246582873502206</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I22">
+        <v>949.74521239815999</v>
+      </c>
+      <c r="J22">
+        <v>87.871959113042905</v>
+      </c>
+      <c r="K22">
+        <v>807.40236899858701</v>
+      </c>
+      <c r="L22">
+        <v>93.578592630215994</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C23">
         <v>988.15688602952196</v>
       </c>
@@ -2072,279 +3245,470 @@
       <c r="F23">
         <v>94.627780686750398</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I23">
+        <v>992.568694946336</v>
+      </c>
+      <c r="J23">
+        <v>90.176302129944503</v>
+      </c>
+      <c r="K23">
+        <v>868.92342843399501</v>
+      </c>
+      <c r="L23">
+        <v>95.817478346393102</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E24">
         <v>616.01479120945203</v>
       </c>
       <c r="F24">
         <v>97.912871898968604</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K24">
+        <v>930.44448786940404</v>
+      </c>
+      <c r="L24">
+        <v>97.383014974998105</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E25">
         <v>665.47289781438803</v>
       </c>
       <c r="F25">
         <v>98.987992659330899</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K25">
+        <v>982.91833268195796</v>
+      </c>
+      <c r="L25">
+        <v>98.239053165977097</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E26">
         <v>714.93100441932404</v>
       </c>
       <c r="F26">
         <v>99.685368287673995</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="M26" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E27">
         <v>764.38911102426096</v>
       </c>
       <c r="F27">
         <v>99.785454604704796</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="M27" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E28">
         <v>813.84721762919696</v>
       </c>
       <c r="F28">
         <v>99.837112058656103</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="M28" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E29">
         <v>863.30532423413399</v>
       </c>
       <c r="F29">
         <v>99.837112058656103</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="M29" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E30">
         <v>912.76343083907</v>
       </c>
       <c r="F30">
         <v>99.904912466967204</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="M30" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E31">
         <v>962.22153744400703</v>
       </c>
       <c r="F31">
         <v>99.856483603887895</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="M31" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E32">
         <v>995.99780536932894</v>
       </c>
       <c r="F32">
         <v>99.841524466181099</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>88</v>
+      <c r="M32" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G4" r:id="rId1" xr:uid="{EE64964D-0873-9C48-8876-0F585857FE5E}"/>
-    <hyperlink ref="G5:G10" r:id="rId2" display="https://web.archive.org/web/20220814163335/https://theicct.org/wp-content/uploads/2022/07/global-aviation-performance-analysis-regional-electric-aircraft-jul22-1.pdf-1.pdf " xr:uid="{642CAA47-7675-DD4E-B92C-A36FB7D004AA}"/>
-    <hyperlink ref="G11:G20" r:id="rId3" display="https://web.archive.org/web/20220814163335/https://theicct.org/wp-content/uploads/2022/07/global-aviation-performance-analysis-regional-electric-aircraft-jul22-1.pdf-1.pdf " xr:uid="{D2740111-E983-1A44-900D-63C987C1AEA7}"/>
-    <hyperlink ref="G2:G3" r:id="rId4" display="https://web.archive.org/web/20220814163335/https://theicct.org/wp-content/uploads/2022/07/global-aviation-performance-analysis-regional-electric-aircraft-jul22-1.pdf-1.pdf " xr:uid="{C22535D5-39B7-5C4C-8101-73FAE3E8CBB7}"/>
-    <hyperlink ref="G21:G32" r:id="rId5" display="https://web.archive.org/web/20220814163335/https://theicct.org/wp-content/uploads/2022/07/global-aviation-performance-analysis-regional-electric-aircraft-jul22-1.pdf-1.pdf " xr:uid="{036948AA-E5BD-1F43-A935-83F7C68B7F95}"/>
+    <hyperlink ref="M4" r:id="rId1" xr:uid="{EE64964D-0873-9C48-8876-0F585857FE5E}"/>
+    <hyperlink ref="M5:M10" r:id="rId2" display="https://web.archive.org/web/20220814163335/https://theicct.org/wp-content/uploads/2022/07/global-aviation-performance-analysis-regional-electric-aircraft-jul22-1.pdf-1.pdf " xr:uid="{642CAA47-7675-DD4E-B92C-A36FB7D004AA}"/>
+    <hyperlink ref="M11:M20" r:id="rId3" display="https://web.archive.org/web/20220814163335/https://theicct.org/wp-content/uploads/2022/07/global-aviation-performance-analysis-regional-electric-aircraft-jul22-1.pdf-1.pdf " xr:uid="{D2740111-E983-1A44-900D-63C987C1AEA7}"/>
+    <hyperlink ref="M2:M3" r:id="rId4" display="https://web.archive.org/web/20220814163335/https://theicct.org/wp-content/uploads/2022/07/global-aviation-performance-analysis-regional-electric-aircraft-jul22-1.pdf-1.pdf " xr:uid="{C22535D5-39B7-5C4C-8101-73FAE3E8CBB7}"/>
+    <hyperlink ref="M21:M32" r:id="rId5" display="https://web.archive.org/web/20220814163335/https://theicct.org/wp-content/uploads/2022/07/global-aviation-performance-analysis-regional-electric-aircraft-jul22-1.pdf-1.pdf " xr:uid="{036948AA-E5BD-1F43-A935-83F7C68B7F95}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A2A797F-A70C-634C-87CC-6949F5EDCE04}">
-  <dimension ref="A1:D10"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A2A797F-A70C-634C-87CC-6949F5EDCE04}">
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView zoomScale="161" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="8" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
       <c r="B1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="B2">
-        <v>2.16</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5">
+        <v>650</v>
+      </c>
+      <c r="D5">
+        <v>330</v>
+      </c>
+      <c r="F5">
+        <f>450*0.5398</f>
+        <v>242.90999999999997</v>
+      </c>
+      <c r="G5">
         <v>19</v>
       </c>
-      <c r="B3">
-        <v>2.952</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="H5" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6">
+        <v>1500</v>
+      </c>
+      <c r="D6">
+        <v>860</v>
+      </c>
+      <c r="F6">
+        <f>1500*0.5398</f>
+        <v>809.69999999999993</v>
+      </c>
+      <c r="G6">
+        <v>104</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7">
+        <v>2300</v>
+      </c>
+      <c r="D7">
+        <v>1800</v>
+      </c>
+      <c r="F7">
+        <f>3000*0.5398</f>
+        <v>1619.3999999999999</v>
+      </c>
+      <c r="G7">
+        <v>191</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4">
-        <v>4.6079999999999997</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5">
-        <v>3.6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6">
-        <v>36</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7">
-        <v>2.34</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8">
+        <v>5100</v>
+      </c>
+      <c r="D8">
+        <v>3600</v>
+      </c>
+      <c r="F8">
+        <f>8800*0.5398</f>
+        <v>4750.24</v>
+      </c>
+      <c r="G8">
+        <v>375</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B8">
-        <v>5.4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9">
-        <v>8.2799999999999994</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9">
+        <v>600</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="E9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9">
+        <v>500</v>
+      </c>
+      <c r="G9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10">
-        <v>18.36</v>
-      </c>
-      <c r="C10" t="s">
-        <v>36</v>
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10">
+        <v>820</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>93</v>
+      </c>
+      <c r="E10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10">
+        <v>1000</v>
+      </c>
+      <c r="G10" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11">
+        <v>1280</v>
+      </c>
+      <c r="D11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12">
+        <v>800</v>
+      </c>
+      <c r="D12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12">
+        <v>180</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H12" r:id="rId1" xr:uid="{389B853C-52F6-524F-BC3C-2791384A1A08}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/4_aviation/energy_density/data/data.xlsx
+++ b/4_aviation/energy_density/data/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelweinold/github/phd_publication_figures/4_aviation/energy_density/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C12ACAF-7D80-6948-B525-62DE3B9638D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78627203-17E0-8746-A031-1E829EE78F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="3" xr2:uid="{B845ADF3-7D47-1941-B9F3-1A771EDB3806}"/>
   </bookViews>
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="123">
   <si>
     <t>type</t>
   </si>
@@ -477,13 +477,25 @@
   </si>
   <si>
     <t>https://doi.org/10.1007/s10008-017-3610-7</t>
+  </si>
+  <si>
+    <t>Wh/kg (historical)</t>
+  </si>
+  <si>
+    <t>Wh/l (historical)</t>
+  </si>
+  <si>
+    <t>Wh/kg (target)</t>
+  </si>
+  <si>
+    <t>Wh/l (target)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -512,12 +524,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -540,11 +546,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1721,30 +1728,36 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC64D6C8-8DB1-3747-BC7A-0FC1D0980146}">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>108</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>119</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="D1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
         <v>1991</v>
       </c>
       <c r="B2">
@@ -1753,12 +1766,18 @@
       <c r="C2">
         <v>80.045807455336401</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
         <v>1992</v>
       </c>
       <c r="B3">
@@ -1767,12 +1786,18 @@
       <c r="C3">
         <v>90.004895203826905</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
         <v>1993</v>
       </c>
       <c r="B4">
@@ -1781,12 +1806,18 @@
       <c r="C4">
         <v>108.145270542593</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
         <v>1994</v>
       </c>
       <c r="B5">
@@ -1795,12 +1826,18 @@
       <c r="C5">
         <v>113.02397442092099</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
         <v>1995</v>
       </c>
       <c r="B6">
@@ -1809,12 +1846,18 @@
       <c r="C6">
         <v>114.33255585978399</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
         <v>1996</v>
       </c>
       <c r="B7">
@@ -1823,12 +1866,18 @@
       <c r="C7">
         <v>119.39865363115101</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
         <v>1997</v>
       </c>
       <c r="B8">
@@ -1837,12 +1886,18 @@
       <c r="C8">
         <v>123.176754589949</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
         <v>1998</v>
       </c>
       <c r="B9">
@@ -1851,12 +1906,18 @@
       <c r="C9">
         <v>135.324341682723</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
         <v>1999</v>
       </c>
       <c r="B10">
@@ -1865,12 +1926,18 @@
       <c r="C10">
         <v>143.14367295772601</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
         <v>2000</v>
       </c>
       <c r="B11">
@@ -1879,12 +1946,18 @@
       <c r="C11">
         <v>159.27390731163101</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
         <v>2001</v>
       </c>
       <c r="B12">
@@ -1893,12 +1966,18 @@
       <c r="C12">
         <v>172.31122356857799</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
         <v>2002</v>
       </c>
       <c r="B13">
@@ -1907,12 +1986,18 @@
       <c r="C13">
         <v>187.98594582341599</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
         <v>2003</v>
       </c>
       <c r="B14">
@@ -1921,12 +2006,18 @@
       <c r="C14">
         <v>192.173182546031</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
         <v>2004</v>
       </c>
       <c r="B15">
@@ -1935,12 +2026,18 @@
       <c r="C15">
         <v>202.22087009430999</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
         <v>2005</v>
       </c>
       <c r="B16">
@@ -1949,12 +2046,18 @@
       <c r="C16">
         <v>210.20906651843299</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
         <v>2006</v>
       </c>
       <c r="B17" t="s">
@@ -1966,9 +2069,15 @@
       <c r="D17" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="E17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
         <v>2007</v>
       </c>
       <c r="B18" t="s">
@@ -1980,9 +2089,15 @@
       <c r="D18" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="E18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
         <v>2008</v>
       </c>
       <c r="B19" t="s">
@@ -1991,12 +2106,18 @@
       <c r="C19">
         <v>226.980835847149</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
         <v>2009</v>
       </c>
       <c r="B20" t="s">
@@ -2008,9 +2129,15 @@
       <c r="D20" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="E20" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
         <v>2010</v>
       </c>
       <c r="B21">
@@ -2019,12 +2146,18 @@
       <c r="C21">
         <v>225.07183179528701</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
         <v>2011</v>
       </c>
       <c r="B22" t="s">
@@ -2036,9 +2169,15 @@
       <c r="D22" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="E22" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
         <v>2012</v>
       </c>
       <c r="B23">
@@ -2047,12 +2186,18 @@
       <c r="C23">
         <v>243.03823141669099</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
         <v>2013</v>
       </c>
       <c r="B24">
@@ -2064,9 +2209,15 @@
       <c r="D24" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="E24" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
         <v>2014</v>
       </c>
       <c r="B25">
@@ -2075,12 +2226,18 @@
       <c r="C25">
         <v>248.24392387519799</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
         <v>2015</v>
       </c>
       <c r="B26">
@@ -2089,12 +2246,18 @@
       <c r="C26">
         <v>256.00175776628402</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
         <v>2016</v>
       </c>
       <c r="B27" t="s">
@@ -2106,9 +2269,15 @@
       <c r="D27" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="E27" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
         <v>2017</v>
       </c>
       <c r="B28" t="s">
@@ -2117,12 +2286,18 @@
       <c r="C28">
         <v>249.15174466129901</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
         <v>2018</v>
       </c>
       <c r="B29">
@@ -2131,12 +2306,18 @@
       <c r="C29" t="s">
         <v>93</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
         <v>2019</v>
       </c>
       <c r="B30" t="s">
@@ -2148,9 +2329,15 @@
       <c r="D30" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="E30" t="s">
+        <v>93</v>
+      </c>
+      <c r="F30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
         <v>2020</v>
       </c>
       <c r="B31">
@@ -2159,12 +2346,18 @@
       <c r="C31">
         <v>279.90868924762299</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
         <v>2021</v>
       </c>
       <c r="B32" t="s">
@@ -2173,12 +2366,18 @@
       <c r="C32">
         <v>301.98237885462498</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" t="s">
+        <v>93</v>
+      </c>
+      <c r="E32" t="s">
+        <v>93</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
         <v>2022</v>
       </c>
       <c r="B33" t="s">
@@ -2190,66 +2389,88 @@
       <c r="D33" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34">
+      <c r="E33" t="s">
+        <v>93</v>
+      </c>
+      <c r="F33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
         <v>2026</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34">
         <v>1003.50877192982</v>
       </c>
-      <c r="C34">
+      <c r="E34">
         <v>401.32158590308302</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
         <v>2031</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35">
         <v>1203.07017543859</v>
       </c>
-      <c r="C35">
+      <c r="E35">
         <v>503.08370044052799</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="55" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F55" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="4"/>
+    </row>
+    <row r="55" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H55" t="s">
         <v>116</v>
       </c>
-      <c r="G55" t="s">
+      <c r="I55" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="56" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="G56" t="s">
+    <row r="56" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="I56" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F57" s="2"/>
-      <c r="G57" t="s">
+    <row r="57" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H57" s="2"/>
+      <c r="I57" t="s">
         <v>116</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D19" r:id="rId1" xr:uid="{E0965DC1-EF4E-FA46-9788-033CE01408C4}"/>
-    <hyperlink ref="D28" r:id="rId2" xr:uid="{4370197B-A03D-3A4B-ABA1-1E8C20508794}"/>
-    <hyperlink ref="D31" r:id="rId3" xr:uid="{B1B396A2-7AD0-6C4D-B805-177AAC263178}"/>
-    <hyperlink ref="D32" r:id="rId4" xr:uid="{AC43E45D-9E36-D243-8FB8-3AFFB8082235}"/>
-    <hyperlink ref="D34" r:id="rId5" xr:uid="{1558077D-08F0-C24A-8D01-8883496C33B9}"/>
-    <hyperlink ref="D35" r:id="rId6" xr:uid="{0D78D834-0E27-FF46-8A99-30234CF1FE82}"/>
-    <hyperlink ref="D29" r:id="rId7" xr:uid="{BB2893D7-3DA1-6E47-B85C-3786761A7E6A}"/>
+    <hyperlink ref="F19" r:id="rId1" xr:uid="{E0965DC1-EF4E-FA46-9788-033CE01408C4}"/>
+    <hyperlink ref="F28" r:id="rId2" xr:uid="{4370197B-A03D-3A4B-ABA1-1E8C20508794}"/>
+    <hyperlink ref="F31" r:id="rId3" xr:uid="{B1B396A2-7AD0-6C4D-B805-177AAC263178}"/>
+    <hyperlink ref="F32" r:id="rId4" xr:uid="{AC43E45D-9E36-D243-8FB8-3AFFB8082235}"/>
+    <hyperlink ref="F34" r:id="rId5" xr:uid="{1558077D-08F0-C24A-8D01-8883496C33B9}"/>
+    <hyperlink ref="F35" r:id="rId6" xr:uid="{0D78D834-0E27-FF46-8A99-30234CF1FE82}"/>
+    <hyperlink ref="F29" r:id="rId7" xr:uid="{BB2893D7-3DA1-6E47-B85C-3786761A7E6A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -3390,7 +3611,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView zoomScale="161" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/4_aviation/energy_density/data/data.xlsx
+++ b/4_aviation/energy_density/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelweinold/github/phd_publication_figures/4_aviation/energy_density/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78627203-17E0-8746-A031-1E829EE78F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31F4197-F5A0-B14F-BC2D-C550A6D49CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="3" xr2:uid="{B845ADF3-7D47-1941-B9F3-1A771EDB3806}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{B845ADF3-7D47-1941-B9F3-1A771EDB3806}"/>
   </bookViews>
   <sheets>
     <sheet name="Energy Density Fuels" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </sheets>
   <definedNames>
     <definedName name="aviation_examples" localSheetId="4">'Electric Aircraft Examples'!$A$1:$F$5</definedName>
-    <definedName name="aviation_requirements" localSheetId="6">'Electric Aircraft Requirements'!$A$1:$H$2</definedName>
+    <definedName name="aviation_requirements" localSheetId="6">'Electric Aircraft Requirements'!$A$1:$M$2</definedName>
     <definedName name="fossil" localSheetId="0">'Energy Density Fuels'!$A$1:$F$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -44,42 +44,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={7205AAD2-4453-7847-B493-DBA5D2FEDEFC}</author>
-    <author>tc={CD577A49-61B9-B649-818D-138C91068D14}</author>
-    <author>tc={2CEC93DF-3710-E745-899F-345178B4E05D}</author>
-  </authors>
-  <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{7205AAD2-4453-7847-B493-DBA5D2FEDEFC}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    300-400</t>
-      </text>
-    </comment>
-    <comment ref="C3" authorId="1" shapeId="0" xr:uid="{CD577A49-61B9-B649-818D-138C91068D14}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    300-400</t>
-      </text>
-    </comment>
-    <comment ref="C4" authorId="2" shapeId="0" xr:uid="{2CEC93DF-3710-E745-899F-345178B4E05D}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    300-400</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
@@ -120,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="132">
   <si>
     <t>type</t>
   </si>
@@ -422,15 +386,6 @@
     <t>air taxi</t>
   </si>
   <si>
-    <t>300-400</t>
-  </si>
-  <si>
-    <t>1200-1800</t>
-  </si>
-  <si>
-    <t>1800-2500</t>
-  </si>
-  <si>
     <t>150-180</t>
   </si>
   <si>
@@ -489,6 +444,42 @@
   </si>
   <si>
     <t>Wh/l (target)</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>Wh/kg (lower)</t>
+  </si>
+  <si>
+    <t>Wh/kg (upper)</t>
+  </si>
+  <si>
+    <t>Wh/kg (average)</t>
+  </si>
+  <si>
+    <t>Wh/l (average)</t>
+  </si>
+  <si>
+    <t>Wh/l (lower)</t>
+  </si>
+  <si>
+    <t>Wh/l (upper)</t>
+  </si>
+  <si>
+    <t>req. density very low???</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.ensm.2019.12.024</t>
+  </si>
+  <si>
+    <t>cell-level</t>
+  </si>
+  <si>
+    <t>energy density context</t>
+  </si>
+  <si>
+    <t>give a pack factor energy density loss of 25%</t>
   </si>
 </sst>
 </file>
@@ -546,12 +537,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -571,9 +561,7 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Michael Weinold" id="{30290BA5-A830-7545-8C79-4802F246EBC5}" userId="8fccafa55074b4ee" providerId="Windows Live"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -883,20 +871,6 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C2" dT="2023-07-07T11:57:20.74" personId="{30290BA5-A830-7545-8C79-4802F246EBC5}" id="{7205AAD2-4453-7847-B493-DBA5D2FEDEFC}">
-    <text>300-400</text>
-  </threadedComment>
-  <threadedComment ref="C3" dT="2023-07-07T11:57:20.74" personId="{30290BA5-A830-7545-8C79-4802F246EBC5}" id="{CD577A49-61B9-B649-818D-138C91068D14}">
-    <text>300-400</text>
-  </threadedComment>
-  <threadedComment ref="C4" dT="2023-07-07T11:57:20.74" personId="{30290BA5-A830-7545-8C79-4802F246EBC5}" id="{2CEC93DF-3710-E745-899F-345178B4E05D}">
-    <text>300-400</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C26E2B2-A64B-9C42-B08A-A3CABA32DEEA}">
   <dimension ref="A1:F23"/>
@@ -1429,8 +1403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C730CE0-2479-7E43-807E-3BF76EDF0063}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1525,17 +1499,17 @@
       <c r="A5" t="s">
         <v>62</v>
       </c>
-      <c r="B5">
-        <v>108</v>
-      </c>
-      <c r="C5">
-        <v>177</v>
-      </c>
-      <c r="D5">
-        <v>222</v>
-      </c>
-      <c r="E5">
-        <v>405</v>
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" t="s">
+        <v>93</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>59</v>
@@ -1585,8 +1559,8 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{B6C50729-B3FD-FE4F-8622-CC95E0A8A54B}"/>
-    <hyperlink ref="F3:F7" r:id="rId2" display="https://doi.org/10.1038/35104644" xr:uid="{725C808B-F424-D742-9437-51EDCFB5B2FD}"/>
-    <hyperlink ref="F7" r:id="rId3" xr:uid="{21810D50-78C1-1B41-941B-33C1AA6966E3}"/>
+    <hyperlink ref="F7" r:id="rId2" xr:uid="{21810D50-78C1-1B41-941B-33C1AA6966E3}"/>
+    <hyperlink ref="F3:F7" r:id="rId3" display="https://doi.org/10.1038/35104644" xr:uid="{725C808B-F424-D742-9437-51EDCFB5B2FD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1604,13 +1578,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D1" t="s">
         <v>52</v>
@@ -1624,12 +1598,12 @@
         <v>460</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B3">
         <v>9930</v>
@@ -1638,12 +1612,12 @@
         <v>3750</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B4">
         <v>7990</v>
@@ -1652,12 +1626,12 @@
         <v>3460</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B5">
         <v>6790</v>
@@ -1666,12 +1640,12 @@
         <v>2790</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B6">
         <v>6670</v>
@@ -1680,12 +1654,12 @@
         <v>2850</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B7">
         <v>6100</v>
@@ -1694,12 +1668,12 @@
         <v>1090</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B8">
         <v>4430</v>
@@ -1708,7 +1682,7 @@
         <v>1580</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1728,43 +1702,46 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC64D6C8-8DB1-3747-BC7A-0FC1D0980146}">
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" t="s">
         <v>119</v>
-      </c>
-      <c r="C1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E1" t="s">
-        <v>122</v>
       </c>
       <c r="F1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+      <c r="G1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>1991</v>
       </c>
       <c r="B2">
-        <v>200.60598415536899</v>
+        <v>80.229383263856406</v>
       </c>
       <c r="C2">
-        <v>80.045807455336401</v>
+        <v>199.98999775537101</v>
       </c>
       <c r="D2" t="s">
         <v>93</v>
@@ -1773,18 +1750,21 @@
         <v>93</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+        <v>115</v>
+      </c>
+      <c r="G2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>1992</v>
       </c>
       <c r="B3">
-        <v>209.39421596555701</v>
+        <v>89.972043417269305</v>
       </c>
       <c r="C3">
-        <v>90.004895203826905</v>
+        <v>209.037645303923</v>
       </c>
       <c r="D3" t="s">
         <v>93</v>
@@ -1793,18 +1773,21 @@
         <v>93</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+        <v>115</v>
+      </c>
+      <c r="G3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>1993</v>
       </c>
       <c r="B4">
-        <v>249.532024553052</v>
+        <v>108.200399293397</v>
       </c>
       <c r="C4">
-        <v>108.145270542593</v>
+        <v>248.75601675532599</v>
       </c>
       <c r="D4" t="s">
         <v>93</v>
@@ -1813,18 +1796,21 @@
         <v>93</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+        <v>115</v>
+      </c>
+      <c r="G4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>1994</v>
       </c>
       <c r="B5">
-        <v>260.33870804178002</v>
+        <v>113.060357574942</v>
       </c>
       <c r="C5">
-        <v>113.02397442092099</v>
+        <v>259.500601934408</v>
       </c>
       <c r="D5" t="s">
         <v>93</v>
@@ -1833,18 +1819,21 @@
         <v>93</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+        <v>115</v>
+      </c>
+      <c r="G5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>1995</v>
       </c>
       <c r="B6">
-        <v>271.53063952577099</v>
+        <v>114.249341817651</v>
       </c>
       <c r="C6">
-        <v>114.33255585978399</v>
+        <v>270.630839359942</v>
       </c>
       <c r="D6" t="s">
         <v>93</v>
@@ -1853,18 +1842,21 @@
         <v>93</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+        <v>115</v>
+      </c>
+      <c r="G6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>1996</v>
       </c>
       <c r="B7">
-        <v>281.63472264476201</v>
+        <v>119.268154368091</v>
       </c>
       <c r="C7">
-        <v>119.39865363115101</v>
+        <v>280.67505085686702</v>
       </c>
       <c r="D7" t="s">
         <v>93</v>
@@ -1873,18 +1865,21 @@
         <v>93</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+        <v>115</v>
+      </c>
+      <c r="G7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>1997</v>
       </c>
       <c r="B8">
-        <v>291.73460467588001</v>
+        <v>123.07837163169</v>
       </c>
       <c r="C8">
-        <v>123.176754589949</v>
+        <v>290.71490399107</v>
       </c>
       <c r="D8" t="s">
         <v>93</v>
@@ -1893,18 +1888,21 @@
         <v>93</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+        <v>115</v>
+      </c>
+      <c r="G8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>1998</v>
       </c>
       <c r="B9">
-        <v>321.25966667008498</v>
+        <v>135.10301166510001</v>
       </c>
       <c r="C9">
-        <v>135.324341682723</v>
+        <v>320.15306919227601</v>
       </c>
       <c r="D9" t="s">
         <v>93</v>
@@ -1913,18 +1911,21 @@
         <v>93</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+        <v>115</v>
+      </c>
+      <c r="G9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>1999</v>
       </c>
       <c r="B10">
-        <v>343.29676328121298</v>
+        <v>142.839500655753</v>
       </c>
       <c r="C10">
-        <v>143.14367295772601</v>
+        <v>342.05346308055101</v>
       </c>
       <c r="D10" t="s">
         <v>93</v>
@@ -1933,18 +1934,21 @@
         <v>93</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+        <v>115</v>
+      </c>
+      <c r="G10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>2000</v>
       </c>
       <c r="B11">
-        <v>385.42219611216598</v>
+        <v>158.94010331649801</v>
       </c>
       <c r="C11">
-        <v>159.27390731163101</v>
+        <v>384.13445787682002</v>
       </c>
       <c r="D11" t="s">
         <v>93</v>
@@ -1953,18 +1957,21 @@
         <v>93</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
+        <v>115</v>
+      </c>
+      <c r="G11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>2001</v>
       </c>
       <c r="B12">
-        <v>428.03329922283302</v>
+        <v>171.93302358898799</v>
       </c>
       <c r="C12">
-        <v>172.31122356857799</v>
+        <v>426.62712370090497</v>
       </c>
       <c r="D12" t="s">
         <v>93</v>
@@ -1973,18 +1980,21 @@
         <v>93</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
+        <v>115</v>
+      </c>
+      <c r="G12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>2002</v>
       </c>
       <c r="B13">
-        <v>471.02385813408699</v>
+        <v>187.674533827511</v>
       </c>
       <c r="C13">
-        <v>187.98594582341599</v>
+        <v>469.36629553217</v>
       </c>
       <c r="D13" t="s">
         <v>93</v>
@@ -1993,18 +2003,21 @@
         <v>93</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
+        <v>115</v>
+      </c>
+      <c r="G13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>2003</v>
       </c>
       <c r="B14">
-        <v>481.46650202520902</v>
+        <v>191.85733946757901</v>
       </c>
       <c r="C14">
-        <v>192.173182546031</v>
+        <v>480.109561663595</v>
       </c>
       <c r="D14" t="s">
         <v>93</v>
@@ -2013,18 +2026,21 @@
         <v>93</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
+        <v>115</v>
+      </c>
+      <c r="G14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>2004</v>
       </c>
       <c r="B15">
-        <v>515.42864420090405</v>
+        <v>201.67198272860199</v>
       </c>
       <c r="C15">
-        <v>202.22087009430999</v>
+        <v>513.83040478476596</v>
       </c>
       <c r="D15" t="s">
         <v>93</v>
@@ -2033,18 +2049,21 @@
         <v>93</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
+        <v>115</v>
+      </c>
+      <c r="G15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>2005</v>
       </c>
       <c r="B16">
-        <v>521.17640015492395</v>
+        <v>209.74124027688501</v>
       </c>
       <c r="C16">
-        <v>210.20906651843299</v>
+        <v>519.56483588328604</v>
       </c>
       <c r="D16" t="s">
         <v>93</v>
@@ -2053,11 +2072,14 @@
         <v>93</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
+        <v>115</v>
+      </c>
+      <c r="G16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>2006</v>
       </c>
       <c r="B17" t="s">
@@ -2075,9 +2097,12 @@
       <c r="F17" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
+      <c r="G17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>2007</v>
       </c>
       <c r="B18" t="s">
@@ -2095,16 +2120,19 @@
       <c r="F18" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
+      <c r="G18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>2008</v>
       </c>
-      <c r="B19" t="s">
-        <v>93</v>
-      </c>
-      <c r="C19">
-        <v>226.980835847149</v>
+      <c r="B19">
+        <v>227.315692645464</v>
+      </c>
+      <c r="C19" t="s">
+        <v>93</v>
       </c>
       <c r="D19" t="s">
         <v>93</v>
@@ -2113,18 +2141,21 @@
         <v>93</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
+        <v>114</v>
+      </c>
+      <c r="G19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>2009</v>
       </c>
       <c r="B20" t="s">
         <v>93</v>
       </c>
-      <c r="C20" t="s">
-        <v>93</v>
+      <c r="C20" s="3">
+        <v>620.89397099999996</v>
       </c>
       <c r="D20" t="s">
         <v>93</v>
@@ -2132,19 +2163,22 @@
       <c r="E20" t="s">
         <v>93</v>
       </c>
-      <c r="F20" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
+      <c r="F20" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>2010</v>
       </c>
-      <c r="B21">
-        <v>620.61496912344705</v>
-      </c>
-      <c r="C21">
-        <v>225.07183179528701</v>
+      <c r="B21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" t="s">
+        <v>93</v>
       </c>
       <c r="D21" t="s">
         <v>93</v>
@@ -2153,11 +2187,14 @@
         <v>93</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
+        <v>128</v>
+      </c>
+      <c r="G21" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>2011</v>
       </c>
       <c r="B22" t="s">
@@ -2172,19 +2209,22 @@
       <c r="E22" t="s">
         <v>93</v>
       </c>
-      <c r="F22" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
+      <c r="F22" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>2012</v>
       </c>
-      <c r="B23">
-        <v>676.32085995335103</v>
-      </c>
-      <c r="C23">
-        <v>243.03823141669099</v>
+      <c r="B23" s="3">
+        <v>241.32824500000001</v>
+      </c>
+      <c r="C23" s="3">
+        <v>653.12177499999996</v>
       </c>
       <c r="D23" t="s">
         <v>93</v>
@@ -2193,18 +2233,21 @@
         <v>93</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
+        <v>128</v>
+      </c>
+      <c r="G23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>2013</v>
       </c>
-      <c r="B24">
-        <v>678.04111490050195</v>
-      </c>
-      <c r="C24" t="s">
-        <v>93</v>
+      <c r="B24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="3">
+        <v>681.41238299999998</v>
       </c>
       <c r="D24" t="s">
         <v>93</v>
@@ -2212,19 +2255,22 @@
       <c r="E24" t="s">
         <v>93</v>
       </c>
-      <c r="F24" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
+      <c r="F24" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G24" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>2014</v>
       </c>
-      <c r="B25">
-        <v>677.57465128928402</v>
-      </c>
-      <c r="C25">
-        <v>248.24392387519799</v>
+      <c r="B25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" t="s">
+        <v>93</v>
       </c>
       <c r="D25" t="s">
         <v>93</v>
@@ -2233,18 +2279,21 @@
         <v>93</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
+        <v>128</v>
+      </c>
+      <c r="G25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>2015</v>
       </c>
-      <c r="B26">
-        <v>697.46292746281699</v>
-      </c>
-      <c r="C26">
-        <v>256.00175776628402</v>
+      <c r="B26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" t="s">
+        <v>93</v>
       </c>
       <c r="D26" t="s">
         <v>93</v>
@@ -2253,15 +2302,18 @@
         <v>93</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
+        <v>128</v>
+      </c>
+      <c r="G26" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>2016</v>
       </c>
-      <c r="B27" t="s">
-        <v>93</v>
+      <c r="B27" s="3">
+        <v>249.33695900000001</v>
       </c>
       <c r="C27" t="s">
         <v>93</v>
@@ -2272,19 +2324,22 @@
       <c r="E27" t="s">
         <v>93</v>
       </c>
-      <c r="F27" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
+      <c r="F27" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G27" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>2017</v>
       </c>
       <c r="B28" t="s">
         <v>93</v>
       </c>
-      <c r="C28">
-        <v>249.15174466129901</v>
+      <c r="C28" t="s">
+        <v>93</v>
       </c>
       <c r="D28" t="s">
         <v>93</v>
@@ -2293,18 +2348,21 @@
         <v>93</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
+        <v>128</v>
+      </c>
+      <c r="G28" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>2018</v>
       </c>
-      <c r="B29">
-        <v>728.06772705625701</v>
-      </c>
-      <c r="C29" t="s">
-        <v>93</v>
+      <c r="B29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29">
+        <v>731.05464399700304</v>
       </c>
       <c r="D29" t="s">
         <v>93</v>
@@ -2313,15 +2371,18 @@
         <v>93</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
+        <v>128</v>
+      </c>
+      <c r="G29" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>2019</v>
       </c>
-      <c r="B30" t="s">
-        <v>93</v>
+      <c r="B30">
+        <v>279.05631324271701</v>
       </c>
       <c r="C30" t="s">
         <v>93</v>
@@ -2332,19 +2393,22 @@
       <c r="E30" t="s">
         <v>93</v>
       </c>
-      <c r="F30" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
+      <c r="F30" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G30" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>2020</v>
       </c>
       <c r="B31">
-        <v>803.94736842105203</v>
+        <v>300.106653191833</v>
       </c>
       <c r="C31">
-        <v>279.90868924762299</v>
+        <v>801.862817082177</v>
       </c>
       <c r="D31" t="s">
         <v>93</v>
@@ -2353,18 +2417,21 @@
         <v>93</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
+        <v>128</v>
+      </c>
+      <c r="G31" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>2021</v>
       </c>
       <c r="B32" t="s">
         <v>93</v>
       </c>
-      <c r="C32">
-        <v>301.98237885462498</v>
+      <c r="C32" t="s">
+        <v>93</v>
       </c>
       <c r="D32" t="s">
         <v>93</v>
@@ -2373,11 +2440,14 @@
         <v>93</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
+        <v>128</v>
+      </c>
+      <c r="G32" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>2022</v>
       </c>
       <c r="B33" t="s">
@@ -2392,13 +2462,16 @@
       <c r="E33" t="s">
         <v>93</v>
       </c>
-      <c r="F33" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
-        <v>2026</v>
+      <c r="F33" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G33" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2025</v>
       </c>
       <c r="B34" t="s">
         <v>93</v>
@@ -2407,18 +2480,21 @@
         <v>93</v>
       </c>
       <c r="D34">
-        <v>1003.50877192982</v>
+        <v>399.756314944439</v>
       </c>
       <c r="E34">
-        <v>401.32158590308302</v>
+        <v>1000.72863954068</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
-        <v>2031</v>
+        <v>128</v>
+      </c>
+      <c r="G34" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2030</v>
       </c>
       <c r="B35" t="s">
         <v>93</v>
@@ -2427,47 +2503,48 @@
         <v>93</v>
       </c>
       <c r="D35">
-        <v>1203.07017543859</v>
+        <v>499.966332979095</v>
       </c>
       <c r="E35">
-        <v>503.08370044052799</v>
+        <v>1202.24066195928</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
-    </row>
-    <row r="55" spans="8:9" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+      <c r="G35" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="55" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H55" t="s">
-        <v>116</v>
-      </c>
-      <c r="I55" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="56" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="I56" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="57" spans="8:9" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="57" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H57" s="2"/>
-      <c r="I57" t="s">
-        <v>116</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F19" r:id="rId1" xr:uid="{E0965DC1-EF4E-FA46-9788-033CE01408C4}"/>
-    <hyperlink ref="F28" r:id="rId2" xr:uid="{4370197B-A03D-3A4B-ABA1-1E8C20508794}"/>
-    <hyperlink ref="F31" r:id="rId3" xr:uid="{B1B396A2-7AD0-6C4D-B805-177AAC263178}"/>
-    <hyperlink ref="F32" r:id="rId4" xr:uid="{AC43E45D-9E36-D243-8FB8-3AFFB8082235}"/>
-    <hyperlink ref="F34" r:id="rId5" xr:uid="{1558077D-08F0-C24A-8D01-8883496C33B9}"/>
-    <hyperlink ref="F35" r:id="rId6" xr:uid="{0D78D834-0E27-FF46-8A99-30234CF1FE82}"/>
-    <hyperlink ref="F29" r:id="rId7" xr:uid="{BB2893D7-3DA1-6E47-B85C-3786761A7E6A}"/>
+    <hyperlink ref="F16" r:id="rId1" xr:uid="{8BDA94E8-7D81-D34E-82C7-6B3D0C46F2BC}"/>
+    <hyperlink ref="F14" r:id="rId2" xr:uid="{5DF7C79A-1C57-F040-AD99-CF2ECBF7823D}"/>
+    <hyperlink ref="F19" r:id="rId3" xr:uid="{6D2FD07C-7366-054A-8111-9DEA30B9DD7B}"/>
+    <hyperlink ref="F20" r:id="rId4" xr:uid="{55AEA9A0-4519-9447-AE11-2C483D2AD125}"/>
+    <hyperlink ref="F21" r:id="rId5" display="https://doi.org/10.1016/j.ensm.2019.12.024 " xr:uid="{338EB191-4627-854B-8D3B-FF590AF0DFF2}"/>
+    <hyperlink ref="F23" r:id="rId6" display="https://doi.org/10.1016/j.ensm.2019.12.024 " xr:uid="{76B51A1F-6D13-E144-B8CB-CE0DE339F631}"/>
+    <hyperlink ref="F25" r:id="rId7" display="https://doi.org/10.1016/j.ensm.2019.12.024 " xr:uid="{C3F33A4E-DBDD-E64F-A476-523932032191}"/>
+    <hyperlink ref="F27" r:id="rId8" display="https://doi.org/10.1016/j.ensm.2019.12.024 " xr:uid="{3600CF1B-36EA-A347-B56C-DCF7411C35F6}"/>
+    <hyperlink ref="F29" r:id="rId9" display="https://doi.org/10.1016/j.ensm.2019.12.024 " xr:uid="{6D08A67B-A362-2349-ACDF-DD6FA5CB8A94}"/>
+    <hyperlink ref="F31" r:id="rId10" display="https://doi.org/10.1016/j.ensm.2019.12.024 " xr:uid="{58504F4C-D892-3944-BF5A-9D9DC7893351}"/>
+    <hyperlink ref="F33" r:id="rId11" display="https://doi.org/10.1016/j.ensm.2019.12.024 " xr:uid="{AA446822-D019-4445-A381-81DF2F032202}"/>
+    <hyperlink ref="F35" r:id="rId12" display="https://doi.org/10.1016/j.ensm.2019.12.024 " xr:uid="{BDD1F34A-F443-2041-AF26-1F6E68DFED6D}"/>
+    <hyperlink ref="F22" r:id="rId13" display="https://doi.org/10.1016/j.ensm.2019.12.024 " xr:uid="{136E2B05-8259-7243-A9A6-9D0DC4929BDA}"/>
+    <hyperlink ref="F24" r:id="rId14" display="https://doi.org/10.1016/j.ensm.2019.12.024 " xr:uid="{09517988-1937-8E40-9FAE-CB63772886E3}"/>
+    <hyperlink ref="F26" r:id="rId15" display="https://doi.org/10.1016/j.ensm.2019.12.024 " xr:uid="{5695BBDD-7F15-A949-B651-B5E4CACE05B9}"/>
+    <hyperlink ref="F28" r:id="rId16" display="https://doi.org/10.1016/j.ensm.2019.12.024 " xr:uid="{5D8F09C4-FE38-4D48-B2D1-45F132941FD5}"/>
+    <hyperlink ref="F30" r:id="rId17" display="https://doi.org/10.1016/j.ensm.2019.12.024 " xr:uid="{D3AAA147-4E95-C84E-8873-191ED5D2BF94}"/>
+    <hyperlink ref="F32" r:id="rId18" display="https://doi.org/10.1016/j.ensm.2019.12.024 " xr:uid="{66166CF4-427A-E14A-8938-BC0D401E2F47}"/>
+    <hyperlink ref="F34" r:id="rId19" display="https://doi.org/10.1016/j.ensm.2019.12.024 " xr:uid="{D3069F5D-3BFA-2142-8FD3-6AE819A81908}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2478,7 +2555,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5F756C-0615-A540-9FE1-321BA5D15B7B}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView zoomScale="107" workbookViewId="0"/>
+    <sheetView zoomScale="157" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3607,19 +3686,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A2A797F-A70C-634C-87CC-6949F5EDCE04}">
-  <dimension ref="A1:H12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A2A797F-A70C-634C-87CC-6949F5EDCE04}">
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView zoomScale="161" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="8" width="10.83203125" customWidth="1"/>
+    <col min="1" max="13" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -3627,25 +3706,43 @@
         <v>82</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="E1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>84</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>85</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="N1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>99</v>
       </c>
@@ -3653,25 +3750,44 @@
         <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" t="s">
-        <v>93</v>
+        <v>129</v>
+      </c>
+      <c r="D2">
+        <v>300</v>
+      </c>
+      <c r="E2">
+        <v>400</v>
+      </c>
+      <c r="F2">
+        <f>(D2+E2)/2</f>
+        <v>350</v>
       </c>
       <c r="G2" t="s">
         <v>93</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="N2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -3679,25 +3795,44 @@
         <v>98</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F3" t="s">
-        <v>93</v>
+        <v>129</v>
+      </c>
+      <c r="D3">
+        <v>1200</v>
+      </c>
+      <c r="E3">
+        <v>1800</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F4" si="0">(D3+E3)/2</f>
+        <v>1500</v>
       </c>
       <c r="G3" t="s">
         <v>93</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J3" t="s">
+        <v>93</v>
+      </c>
+      <c r="K3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L3" t="s">
+        <v>93</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="N3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -3705,231 +3840,358 @@
         <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F4" t="s">
-        <v>93</v>
+        <v>129</v>
+      </c>
+      <c r="D4">
+        <v>1800</v>
+      </c>
+      <c r="E4">
+        <v>2500</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>2150</v>
       </c>
       <c r="G4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4" t="s">
+        <v>93</v>
+      </c>
+      <c r="K4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L4" t="s">
+        <v>100</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="N4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
       <c r="B5" t="s">
         <v>81</v>
       </c>
-      <c r="C5">
+      <c r="D5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5">
         <v>650</v>
       </c>
-      <c r="D5">
+      <c r="G5" t="s">
+        <v>93</v>
+      </c>
+      <c r="H5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I5">
         <v>330</v>
       </c>
-      <c r="F5">
+      <c r="K5">
         <f>450*0.5398</f>
         <v>242.90999999999997</v>
       </c>
-      <c r="G5">
+      <c r="L5">
         <v>19</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6" t="s">
         <v>81</v>
       </c>
-      <c r="C6">
+      <c r="D6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6">
         <v>1500</v>
       </c>
-      <c r="D6">
+      <c r="G6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H6" t="s">
+        <v>93</v>
+      </c>
+      <c r="I6">
         <v>860</v>
       </c>
-      <c r="F6">
+      <c r="K6">
         <f>1500*0.5398</f>
         <v>809.69999999999993</v>
       </c>
-      <c r="G6">
+      <c r="L6">
         <v>104</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>19</v>
       </c>
       <c r="B7" t="s">
         <v>81</v>
       </c>
-      <c r="C7">
+      <c r="D7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7">
         <v>2300</v>
       </c>
-      <c r="D7">
+      <c r="G7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I7">
         <v>1800</v>
       </c>
-      <c r="F7">
+      <c r="K7">
         <f>3000*0.5398</f>
         <v>1619.3999999999999</v>
       </c>
-      <c r="G7">
+      <c r="L7">
         <v>191</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
       <c r="B8" t="s">
         <v>81</v>
       </c>
-      <c r="C8">
+      <c r="D8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8">
         <v>5100</v>
       </c>
-      <c r="D8">
+      <c r="G8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H8" t="s">
+        <v>93</v>
+      </c>
+      <c r="I8">
         <v>3600</v>
       </c>
-      <c r="F8">
+      <c r="K8">
         <f>8800*0.5398</f>
         <v>4750.24</v>
       </c>
-      <c r="G8">
+      <c r="L8">
         <v>375</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>83</v>
       </c>
-      <c r="C9">
+      <c r="D9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9">
         <v>600</v>
       </c>
-      <c r="D9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F9">
+      <c r="G9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H9" t="s">
+        <v>93</v>
+      </c>
+      <c r="I9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9">
         <v>500</v>
       </c>
-      <c r="G9" t="s">
+      <c r="L9" t="s">
         <v>89</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="M9" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="N9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
       <c r="B10" t="s">
         <v>83</v>
       </c>
-      <c r="C10">
+      <c r="D10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10">
         <v>820</v>
       </c>
-      <c r="D10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10">
+      <c r="G10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" t="s">
+        <v>93</v>
+      </c>
+      <c r="I10" t="s">
+        <v>93</v>
+      </c>
+      <c r="J10" t="s">
+        <v>93</v>
+      </c>
+      <c r="K10">
         <v>1000</v>
       </c>
-      <c r="G10" t="s">
+      <c r="L10" t="s">
         <v>92</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="M10" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="N10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
       <c r="B11" t="s">
         <v>83</v>
       </c>
-      <c r="C11">
+      <c r="D11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11">
         <v>1280</v>
       </c>
-      <c r="D11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" t="s">
-        <v>93</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H11" t="s">
+        <v>93</v>
+      </c>
+      <c r="I11" t="s">
+        <v>93</v>
+      </c>
+      <c r="J11" t="s">
+        <v>93</v>
+      </c>
+      <c r="K11" t="s">
         <v>91</v>
       </c>
-      <c r="G11" t="s">
+      <c r="L11" t="s">
         <v>90</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="M11" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="N11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
       <c r="B12" t="s">
         <v>95</v>
       </c>
-      <c r="C12">
+      <c r="D12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12">
         <v>800</v>
       </c>
-      <c r="D12" t="s">
-        <v>93</v>
-      </c>
-      <c r="E12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12" t="s">
+        <v>93</v>
+      </c>
+      <c r="J12" t="s">
+        <v>93</v>
+      </c>
+      <c r="K12" t="s">
         <v>96</v>
       </c>
-      <c r="G12">
+      <c r="L12">
         <v>180</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="M12" s="2" t="s">
         <v>94</v>
+      </c>
+      <c r="N12" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H12" r:id="rId1" xr:uid="{389B853C-52F6-524F-BC3C-2791384A1A08}"/>
+    <hyperlink ref="M12" r:id="rId1" xr:uid="{389B853C-52F6-524F-BC3C-2791384A1A08}"/>
+    <hyperlink ref="M9" r:id="rId2" xr:uid="{01FA233F-0C6B-D040-8335-E9BE9785A541}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/4_aviation/energy_density/data/data.xlsx
+++ b/4_aviation/energy_density/data/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelweinold/github/phd_publication_figures/4_aviation/energy_density/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31F4197-F5A0-B14F-BC2D-C550A6D49CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E21D0F6-CC69-B747-B63D-AD7D78A1CAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{B845ADF3-7D47-1941-B9F3-1A771EDB3806}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="2" xr2:uid="{B845ADF3-7D47-1941-B9F3-1A771EDB3806}"/>
   </bookViews>
   <sheets>
     <sheet name="Energy Density Fuels" sheetId="3" r:id="rId1"/>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="134">
   <si>
     <t>type</t>
   </si>
@@ -480,6 +480,12 @@
   </si>
   <si>
     <t>give a pack factor energy density loss of 25%</t>
+  </si>
+  <si>
+    <t>some new battery</t>
+  </si>
+  <si>
+    <t>https://news.yahoo.com/nasa-incredible-solid-state-battery-130000645.html</t>
   </si>
 </sst>
 </file>
@@ -558,10 +564,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1403,7 +1405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C730CE0-2479-7E43-807E-3BF76EDF0063}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -1568,10 +1570,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3DF2F86-30C6-2246-A264-173C0F9F5AEF}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView zoomScale="142" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="142" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1683,6 +1685,14 @@
       </c>
       <c r="D8" s="2" t="s">
         <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/4_aviation/energy_density/data/data.xlsx
+++ b/4_aviation/energy_density/data/data.xlsx
@@ -1,30 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelweinold/github/phd_publication_figures/4_aviation/energy_density/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E21D0F6-CC69-B747-B63D-AD7D78A1CAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C09749C-D332-7749-9117-28A3895A9351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="2" xr2:uid="{B845ADF3-7D47-1941-B9F3-1A771EDB3806}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="17280" windowHeight="21580" activeTab="2" xr2:uid="{B845ADF3-7D47-1941-B9F3-1A771EDB3806}"/>
   </bookViews>
   <sheets>
-    <sheet name="Energy Density Fuels" sheetId="3" r:id="rId1"/>
-    <sheet name="Energy Density Batteries (2011)" sheetId="4" r:id="rId2"/>
-    <sheet name="Energy Batteries Limits" sheetId="6" r:id="rId3"/>
-    <sheet name="Li-ion Historical" sheetId="7" r:id="rId4"/>
-    <sheet name="Electric Aircraft Examples" sheetId="1" r:id="rId5"/>
-    <sheet name="Aircraft Electrification (ICCT)" sheetId="5" r:id="rId6"/>
-    <sheet name="Electric Aircraft Requirements" sheetId="2" r:id="rId7"/>
+    <sheet name="Batteries (Acft.)" sheetId="8" r:id="rId1"/>
+    <sheet name="Batteries (General)" sheetId="4" r:id="rId2"/>
+    <sheet name="Batteries Limits" sheetId="6" r:id="rId3"/>
+    <sheet name="Fuels" sheetId="3" r:id="rId4"/>
+    <sheet name="Historical Li-Ion" sheetId="7" r:id="rId5"/>
+    <sheet name="Acft Examples" sheetId="1" r:id="rId6"/>
+    <sheet name="Acft Requirements" sheetId="2" r:id="rId7"/>
+    <sheet name="Acft Replacement" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="aviation_examples" localSheetId="4">'Electric Aircraft Examples'!$A$1:$F$5</definedName>
-    <definedName name="aviation_requirements" localSheetId="6">'Electric Aircraft Requirements'!$A$1:$M$2</definedName>
-    <definedName name="fossil" localSheetId="0">'Energy Density Fuels'!$A$1:$F$23</definedName>
+    <definedName name="aviation_examples" localSheetId="5">'Acft Examples'!$A$1:$F$5</definedName>
+    <definedName name="aviation_requirements" localSheetId="6">'Acft Requirements'!$A$1:$M$2</definedName>
+    <definedName name="fossil" localSheetId="3">Fuels!$A$1:$F$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -84,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="166">
   <si>
     <t>type</t>
   </si>
@@ -251,9 +252,6 @@
     <t>Ni-MH</t>
   </si>
   <si>
-    <t>PLiON</t>
-  </si>
-  <si>
     <t>Li-metal</t>
   </si>
   <si>
@@ -263,12 +261,6 @@
     <t>https://doi.org/10.1038/35104646</t>
   </si>
   <si>
-    <t>https://doi.org/10.1038/35104647</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1038/35104648</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1038/35104649</t>
   </si>
   <si>
@@ -392,36 +384,12 @@
     <t>chemistry</t>
   </si>
   <si>
-    <t>limit [Wh/kg]</t>
-  </si>
-  <si>
     <t>limit [Wh/l]</t>
   </si>
   <si>
-    <t>https://www.doitpoms.ac.uk/tlplib/batteries/batteries_lithium.php#:~:text=Li%2Dion%20battery&amp;text=Thus%20the%20maximum%20theoretical%20specific,components%20are%20taken%20into%20account.</t>
-  </si>
-  <si>
     <t>year</t>
   </si>
   <si>
-    <t>Si/O2</t>
-  </si>
-  <si>
-    <t>Li/O2</t>
-  </si>
-  <si>
-    <t>Al/O2</t>
-  </si>
-  <si>
-    <t>Mg/O2</t>
-  </si>
-  <si>
-    <t>Zn/O2</t>
-  </si>
-  <si>
-    <t>Na/O2</t>
-  </si>
-  <si>
     <t>https://doi.org/10.3390/batteries4010005</t>
   </si>
   <si>
@@ -482,10 +450,139 @@
     <t>give a pack factor energy density loss of 25%</t>
   </si>
   <si>
-    <t>some new battery</t>
-  </si>
-  <si>
-    <t>https://news.yahoo.com/nasa-incredible-solid-state-battery-130000645.html</t>
+    <t>company</t>
+  </si>
+  <si>
+    <t>Wright</t>
+  </si>
+  <si>
+    <t>[Wh/kg]</t>
+  </si>
+  <si>
+    <t>[Wh/l]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.weflywright.com/about </t>
+  </si>
+  <si>
+    <t>"molten battery"</t>
+  </si>
+  <si>
+    <t>Northvolt/Cuberg</t>
+  </si>
+  <si>
+    <t>Lithium-Metal</t>
+  </si>
+  <si>
+    <t>"40% higher than Li-Ion"</t>
+  </si>
+  <si>
+    <t>"in the coming years"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cuberg.net/news/cuberg-aviation-battery-system-program-could-double-effective-flight-range-compar </t>
+  </si>
+  <si>
+    <t>prototype?</t>
+  </si>
+  <si>
+    <t>CATL</t>
+  </si>
+  <si>
+    <t>"Condensed Matter"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.catl.com/en/news/6015.html </t>
+  </si>
+  <si>
+    <t>Safety concerns https://www.popularmechanics.com/technology/infrastructure/a43659015/could-these-batteries-power-electric-planes/</t>
+  </si>
+  <si>
+    <t>Sulfur-Selenium</t>
+  </si>
+  <si>
+    <t>NASA</t>
+  </si>
+  <si>
+    <t>https://www.nasa.gov/aeronautics/nasas-solid-state-battery-research-exceeds-initial-goals-draws-interest/</t>
+  </si>
+  <si>
+    <t>NASA/QuantumScape</t>
+  </si>
+  <si>
+    <t>chemistry type</t>
+  </si>
+  <si>
+    <t>Rechargable Li-Metal Battery</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>some information here: https://www.flightglobal.com/engines/wright-electric-pursues-high-energy-batteries-for-larger-future-all-electric-aircraft/155184.article</t>
+  </si>
+  <si>
+    <t>Solid-State Battery</t>
+  </si>
+  <si>
+    <t>https://www.quantumscape.com/technology/</t>
+  </si>
+  <si>
+    <t>Metal-Air</t>
+  </si>
+  <si>
+    <t>Li-O2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.3390/batteries4010005 </t>
+  </si>
+  <si>
+    <t>source 1</t>
+  </si>
+  <si>
+    <t>source 2</t>
+  </si>
+  <si>
+    <t>source 3</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41586-021-04139-1</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/aenm.201000010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1002/aenm.201000010 </t>
+  </si>
+  <si>
+    <t>Zn-O2</t>
+  </si>
+  <si>
+    <t>source 4</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/978-981-10-0746-0_1</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/c5ee00838g</t>
+  </si>
+  <si>
+    <t>Li-S</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/c8ta07220e</t>
+  </si>
+  <si>
+    <t>http://doi.org/10.3390/en11051184</t>
+  </si>
+  <si>
+    <t>Rechargable Li-Metal</t>
+  </si>
+  <si>
+    <t>limit (practical) [Wh/kg]</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/c9nh00730j</t>
   </si>
 </sst>
 </file>
@@ -522,12 +619,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -543,11 +646,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -874,12 +978,611 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D075F8BE-0696-E04C-8224-C3AB3B0E8A0F}">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2">
+        <v>1000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2">
+        <v>2030</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3">
+        <v>280</v>
+      </c>
+      <c r="C3">
+        <v>320</v>
+      </c>
+      <c r="D3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3">
+        <v>2023</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4">
+        <v>350</v>
+      </c>
+      <c r="C4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4">
+        <v>2030</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5">
+        <v>405</v>
+      </c>
+      <c r="C5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5">
+        <v>2023</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6">
+        <v>500</v>
+      </c>
+      <c r="C6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6">
+        <v>2023</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7">
+        <v>500</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F7">
+        <v>2023</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8">
+        <v>350</v>
+      </c>
+      <c r="C8">
+        <v>1000</v>
+      </c>
+      <c r="D8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E8" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8">
+        <v>2030</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{7F6C327F-E3F9-C847-801F-BD97EE2A06AD}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{BE14865B-4D4A-A64A-B439-30C8798A5A10}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{1BB549C1-AE29-E846-AF57-81A29899D5F5}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{F7EF7F0B-5E77-2E40-8FB8-A5EAF1103C28}"/>
+    <hyperlink ref="G6" r:id="rId5" xr:uid="{B5D6E431-7CFC-8644-ACC5-35340D921436}"/>
+    <hyperlink ref="G7" r:id="rId6" xr:uid="{36207BE8-33F4-2844-AFB7-DF2315D39AB2}"/>
+    <hyperlink ref="G8" r:id="rId7" xr:uid="{020874BD-43CF-7E44-92D5-31843BAC972C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C730CE0-2479-7E43-807E-3BF76EDF0063}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView zoomScale="194" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2">
+        <v>2001</v>
+      </c>
+      <c r="C2">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>43</v>
+      </c>
+      <c r="E2">
+        <v>27</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3">
+        <v>2001</v>
+      </c>
+      <c r="C3">
+        <v>26</v>
+      </c>
+      <c r="D3">
+        <v>66</v>
+      </c>
+      <c r="E3">
+        <v>60</v>
+      </c>
+      <c r="F3">
+        <v>190</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4">
+        <v>2001</v>
+      </c>
+      <c r="C4">
+        <v>67</v>
+      </c>
+      <c r="D4">
+        <v>106</v>
+      </c>
+      <c r="E4">
+        <v>60</v>
+      </c>
+      <c r="F4">
+        <v>300</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5">
+        <v>2020</v>
+      </c>
+      <c r="C5">
+        <v>133</v>
+      </c>
+      <c r="D5">
+        <v>250</v>
+      </c>
+      <c r="E5">
+        <v>270</v>
+      </c>
+      <c r="F5">
+        <v>680</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6">
+        <v>2020</v>
+      </c>
+      <c r="C6">
+        <v>180</v>
+      </c>
+      <c r="D6">
+        <v>260</v>
+      </c>
+      <c r="E6">
+        <v>270</v>
+      </c>
+      <c r="F6">
+        <v>580</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7">
+        <v>2020</v>
+      </c>
+      <c r="C7">
+        <v>200</v>
+      </c>
+      <c r="D7">
+        <v>380</v>
+      </c>
+      <c r="E7">
+        <v>225</v>
+      </c>
+      <c r="F7">
+        <v>440</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{B6C50729-B3FD-FE4F-8622-CC95E0A8A54B}"/>
+    <hyperlink ref="G6" r:id="rId2" xr:uid="{21810D50-78C1-1B41-941B-33C1AA6966E3}"/>
+    <hyperlink ref="G7" r:id="rId3" xr:uid="{FA4F5075-8149-4848-ABB6-ED6081866FB3}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{62D0F637-FF5D-154C-AF56-575CDBF27A35}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3DF2F86-30C6-2246-A264-173C0F9F5AEF}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2">
+        <v>3500</v>
+      </c>
+      <c r="D2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3">
+        <v>1000</v>
+      </c>
+      <c r="D3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4">
+        <v>800</v>
+      </c>
+      <c r="D4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5">
+        <v>500</v>
+      </c>
+      <c r="D5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6">
+        <v>600</v>
+      </c>
+      <c r="D6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{3E9FE080-816B-0C4E-BC57-230F91691956}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{A2D1D120-987F-EB4A-9AED-8C5F9F561032}"/>
+    <hyperlink ref="G2" r:id="rId3" xr:uid="{C1183B88-5980-DA45-BB4A-F0B6935309F2}"/>
+    <hyperlink ref="H2" r:id="rId4" xr:uid="{14696ED9-8DA4-854D-9855-9F8511843386}"/>
+    <hyperlink ref="E3" r:id="rId5" xr:uid="{1B85C4EF-D939-474C-8429-2670F4191FB7}"/>
+    <hyperlink ref="F3" r:id="rId6" xr:uid="{C44CBEE8-A31C-514A-8669-01DC108C2DD4}"/>
+    <hyperlink ref="G3" r:id="rId7" xr:uid="{1E367034-281E-4D47-9791-47F3DAAF7661}"/>
+    <hyperlink ref="E4" r:id="rId8" xr:uid="{8A5CA531-8191-6F4C-AA05-B6935DDA7D40}"/>
+    <hyperlink ref="F4" r:id="rId9" xr:uid="{2BB6BA86-1B13-A24A-907D-D741ECD895BA}"/>
+    <hyperlink ref="G4" r:id="rId10" xr:uid="{0340FA30-3F36-CD4E-933B-FEFF4BA638D0}"/>
+    <hyperlink ref="E5" r:id="rId11" xr:uid="{2C8B5688-184A-C346-B5F8-6C6CE4C3C0BA}"/>
+    <hyperlink ref="F5" r:id="rId12" xr:uid="{80143769-BB8C-BA46-AB1A-C43983B8DC17}"/>
+    <hyperlink ref="G5" r:id="rId13" xr:uid="{E618EEE4-A2E5-A946-A703-8613051ADBD9}"/>
+    <hyperlink ref="E6" r:id="rId14" xr:uid="{A161F4DF-2675-9245-98AE-1A0CDF17F4B5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C26E2B2-A64B-9C42-B08A-A3CABA32DEEA}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
-    </sheetView>
+    <sheetView zoomScale="117" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1111,7 +1814,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B11">
         <v>143</v>
@@ -1133,7 +1836,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B12">
         <v>143</v>
@@ -1199,7 +1902,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B15">
         <v>143</v>
@@ -1401,346 +2104,44 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C730CE0-2479-7E43-807E-3BF76EDF0063}">
-  <dimension ref="A1:F7"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC64D6C8-8DB1-3747-BC7A-0FC1D0980146}">
+  <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2">
-        <v>9</v>
-      </c>
-      <c r="C2">
-        <v>43</v>
-      </c>
-      <c r="D2">
-        <v>27</v>
-      </c>
-      <c r="E2">
-        <v>100</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3">
-        <v>26</v>
-      </c>
-      <c r="C3">
-        <v>66</v>
-      </c>
-      <c r="D3">
-        <v>60</v>
-      </c>
-      <c r="E3">
-        <v>190</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4">
-        <v>67</v>
-      </c>
-      <c r="C4">
-        <v>106</v>
-      </c>
-      <c r="D4">
-        <v>60</v>
-      </c>
-      <c r="E4">
-        <v>300</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6">
-        <v>110</v>
-      </c>
-      <c r="C6">
-        <v>200</v>
-      </c>
-      <c r="D6">
-        <v>168</v>
-      </c>
-      <c r="E6">
-        <v>416</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7">
-        <v>170</v>
-      </c>
-      <c r="C7">
-        <v>235</v>
-      </c>
-      <c r="D7">
-        <v>247</v>
-      </c>
-      <c r="E7">
-        <v>437</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{B6C50729-B3FD-FE4F-8622-CC95E0A8A54B}"/>
-    <hyperlink ref="F7" r:id="rId2" xr:uid="{21810D50-78C1-1B41-941B-33C1AA6966E3}"/>
-    <hyperlink ref="F3:F7" r:id="rId3" display="https://doi.org/10.1038/35104644" xr:uid="{725C808B-F424-D742-9437-51EDCFB5B2FD}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3DF2F86-30C6-2246-A264-173C0F9F5AEF}">
-  <dimension ref="A1:D10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="142" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2">
-        <v>460</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3">
-        <v>9930</v>
-      </c>
-      <c r="C3">
-        <v>3750</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B4">
-        <v>7990</v>
-      </c>
-      <c r="C4">
-        <v>3460</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B5">
-        <v>6790</v>
-      </c>
-      <c r="C5">
-        <v>2790</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B6">
-        <v>6670</v>
-      </c>
-      <c r="C6">
-        <v>2850</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7">
-        <v>6100</v>
-      </c>
-      <c r="C7">
-        <v>1090</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B8">
-        <v>4430</v>
-      </c>
-      <c r="C8">
-        <v>1580</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" location=":~:text=Li%2Dion%20battery&amp;text=Thus%20the%20maximum%20theoretical%20specific,components%20are%20taken%20into%20account." xr:uid="{B398401B-B862-7040-AEAD-EF88381A4AF4}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{CFBCED84-6E2E-BB4E-8B74-7B7A913846F0}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{845753CA-C372-A847-9D2E-51E87050C372}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{6E6A1C27-FBCF-694E-990C-D54748C1DBD1}"/>
-    <hyperlink ref="D7" r:id="rId5" xr:uid="{3C7FB15D-050F-B842-B66F-1D8D36AD6653}"/>
-    <hyperlink ref="D6" r:id="rId6" xr:uid="{DB6F0900-2AA6-3F40-AA51-B9411AB8589A}"/>
-    <hyperlink ref="D8" r:id="rId7" xr:uid="{40E89A64-4E8A-C14F-B712-91C6F69946DF}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC64D6C8-8DB1-3747-BC7A-0FC1D0980146}">
-  <dimension ref="A1:H57"/>
-  <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" t="s">
         <v>105</v>
       </c>
-      <c r="B1" t="s">
-        <v>116</v>
-      </c>
       <c r="C1" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D1" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="E1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="F1" t="s">
         <v>52</v>
       </c>
       <c r="G1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1754,16 +2155,16 @@
         <v>199.98999775537101</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="G2" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1777,16 +2178,16 @@
         <v>209.037645303923</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="G3" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1800,16 +2201,16 @@
         <v>248.75601675532599</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="G4" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1823,16 +2224,16 @@
         <v>259.500601934408</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="G5" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1846,16 +2247,16 @@
         <v>270.630839359942</v>
       </c>
       <c r="D6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="G6" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1869,16 +2270,16 @@
         <v>280.67505085686702</v>
       </c>
       <c r="D7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="G7" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1892,16 +2293,16 @@
         <v>290.71490399107</v>
       </c>
       <c r="D8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="G8" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1915,16 +2316,16 @@
         <v>320.15306919227601</v>
       </c>
       <c r="D9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="G9" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1938,16 +2339,16 @@
         <v>342.05346308055101</v>
       </c>
       <c r="D10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="G10" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1961,16 +2362,16 @@
         <v>384.13445787682002</v>
       </c>
       <c r="D11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="G11" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1984,16 +2385,16 @@
         <v>426.62712370090497</v>
       </c>
       <c r="D12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="G12" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -2007,16 +2408,16 @@
         <v>469.36629553217</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="G13" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -2030,16 +2431,16 @@
         <v>480.109561663595</v>
       </c>
       <c r="D14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="G14" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -2053,16 +2454,16 @@
         <v>513.83040478476596</v>
       </c>
       <c r="D15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="G15" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -2076,16 +2477,16 @@
         <v>519.56483588328604</v>
       </c>
       <c r="D16" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E16" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="G16" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -2093,22 +2494,22 @@
         <v>2006</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D17" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F17" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G17" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -2116,22 +2517,22 @@
         <v>2007</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D18" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E18" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F18" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G18" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -2142,19 +2543,19 @@
         <v>227.315692645464</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="G19" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -2162,22 +2563,22 @@
         <v>2009</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C20" s="3">
         <v>620.89397099999996</v>
       </c>
       <c r="D20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="G20" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -2185,22 +2586,22 @@
         <v>2010</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="G21" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -2208,22 +2609,22 @@
         <v>2011</v>
       </c>
       <c r="B22" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C22" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D22" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E22" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="G22" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -2237,16 +2638,16 @@
         <v>653.12177499999996</v>
       </c>
       <c r="D23" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E23" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="G23" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -2254,22 +2655,22 @@
         <v>2013</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C24" s="3">
         <v>681.41238299999998</v>
       </c>
       <c r="D24" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E24" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="G24" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -2277,22 +2678,22 @@
         <v>2014</v>
       </c>
       <c r="B25" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D25" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E25" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="G25" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -2300,22 +2701,22 @@
         <v>2015</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D26" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E26" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="G26" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -2326,19 +2727,19 @@
         <v>249.33695900000001</v>
       </c>
       <c r="C27" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D27" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E27" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="G27" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -2346,22 +2747,22 @@
         <v>2017</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C28" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D28" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E28" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="G28" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -2369,22 +2770,22 @@
         <v>2018</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C29">
         <v>731.05464399700304</v>
       </c>
       <c r="D29" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E29" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="G29" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -2395,19 +2796,19 @@
         <v>279.05631324271701</v>
       </c>
       <c r="C30" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D30" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E30" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="G30" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -2421,16 +2822,16 @@
         <v>801.862817082177</v>
       </c>
       <c r="D31" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E31" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="G31" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -2438,22 +2839,22 @@
         <v>2021</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C32" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D32" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E32" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="G32" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -2461,22 +2862,22 @@
         <v>2022</v>
       </c>
       <c r="B33" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C33" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D33" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E33" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="G33" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -2484,10 +2885,10 @@
         <v>2025</v>
       </c>
       <c r="B34" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C34" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D34">
         <v>399.756314944439</v>
@@ -2496,10 +2897,10 @@
         <v>1000.72863954068</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="G34" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -2507,10 +2908,10 @@
         <v>2030</v>
       </c>
       <c r="B35" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C35" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D35">
         <v>499.966332979095</v>
@@ -2519,15 +2920,15 @@
         <v>1202.24066195928</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="G35" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H55" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="8:8" x14ac:dyDescent="0.2">
@@ -2561,7 +2962,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5F756C-0615-A540-9FE1-321BA5D15B7B}">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -2678,1023 +3079,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EC74511-5D70-DF41-8E76-21400F73FA0F}">
-  <dimension ref="A1:M32"/>
-  <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="L1" t="s">
-        <v>80</v>
-      </c>
-      <c r="M1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>10</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>10</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>10</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>128.671496858371</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>137.115563839701</v>
-      </c>
-      <c r="D4">
-        <v>0.30221468458560702</v>
-      </c>
-      <c r="E4">
-        <v>22.517511950214899</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3">
-        <v>330.91573219493102</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>211.492499173255</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>30.5482067161713</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>190.19255629377901</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>198.63662327511</v>
-      </c>
-      <c r="D5">
-        <v>1.79881354081213</v>
-      </c>
-      <c r="E5">
-        <v>71.9756185551513</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3">
-        <v>392.43679163034</v>
-      </c>
-      <c r="H5">
-        <v>7.75973103794598E-2</v>
-      </c>
-      <c r="I5">
-        <v>273.01355860866403</v>
-      </c>
-      <c r="J5">
-        <v>0.20231179729054799</v>
-      </c>
-      <c r="K5">
-        <v>92.069266151579995</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>251.71361572918801</v>
-      </c>
-      <c r="B6">
-        <v>0.52216145800666403</v>
-      </c>
-      <c r="C6">
-        <v>249.90417280461699</v>
-      </c>
-      <c r="D6">
-        <v>8.4710765352582609</v>
-      </c>
-      <c r="E6">
-        <v>131.04838709677401</v>
-      </c>
-      <c r="F6">
-        <v>3.3185840707964598</v>
-      </c>
-      <c r="G6">
-        <v>455.64516129032199</v>
-      </c>
-      <c r="H6">
-        <v>1.1037527593819101</v>
-      </c>
-      <c r="I6">
-        <v>334.534618044073</v>
-      </c>
-      <c r="J6">
-        <v>2.9035772470346402</v>
-      </c>
-      <c r="K6">
-        <v>153.590325586988</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>313.23467516459698</v>
-      </c>
-      <c r="B7">
-        <v>3.4627056017226301</v>
-      </c>
-      <c r="C7">
-        <v>287.90247422060497</v>
-      </c>
-      <c r="D7">
-        <v>15.0892179416481</v>
-      </c>
-      <c r="E7">
-        <v>169.68553648197701</v>
-      </c>
-      <c r="F7">
-        <v>7.8418093218215397</v>
-      </c>
-      <c r="G7">
-        <v>502.01612903225799</v>
-      </c>
-      <c r="H7">
-        <v>1.98675496688743</v>
-      </c>
-      <c r="I7">
-        <v>391.23049634729199</v>
-      </c>
-      <c r="J7">
-        <v>7.1468894238242697</v>
-      </c>
-      <c r="K7">
-        <v>215.111385022397</v>
-      </c>
-      <c r="L7">
-        <v>0.34543883898429301</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>374.75573460000601</v>
-      </c>
-      <c r="B8">
-        <v>9.1024401414104794</v>
-      </c>
-      <c r="C8">
-        <v>317.45670865526199</v>
-      </c>
-      <c r="D8">
-        <v>21.889726925582899</v>
-      </c>
-      <c r="E8">
-        <v>205.27124733187</v>
-      </c>
-      <c r="F8">
-        <v>12.9082714084239</v>
-      </c>
-      <c r="G8">
-        <v>602.822580645161</v>
-      </c>
-      <c r="H8">
-        <v>7.7262693156733002</v>
-      </c>
-      <c r="I8">
-        <v>431.64138832937499</v>
-      </c>
-      <c r="J8">
-        <v>13.1428356879373</v>
-      </c>
-      <c r="K8">
-        <v>273.01355860866403</v>
-      </c>
-      <c r="L8">
-        <v>3.9697386772061298</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>432.657908186273</v>
-      </c>
-      <c r="B9">
-        <v>15.3880444374799</v>
-      </c>
-      <c r="C9">
-        <v>341.58261431620701</v>
-      </c>
-      <c r="D9">
-        <v>28.634091827561399</v>
-      </c>
-      <c r="E9">
-        <v>226.98456242672</v>
-      </c>
-      <c r="F9">
-        <v>18.957682125213399</v>
-      </c>
-      <c r="G9">
-        <v>636.71158644740399</v>
-      </c>
-      <c r="H9">
-        <v>11.7532438810128</v>
-      </c>
-      <c r="I9">
-        <v>461.19562276403201</v>
-      </c>
-      <c r="J9">
-        <v>18.575066502903901</v>
-      </c>
-      <c r="K9">
-        <v>314.63074587379299</v>
-      </c>
-      <c r="L9">
-        <v>10.7708987818602</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>484.52860535730298</v>
-      </c>
-      <c r="B10">
-        <v>21.924757136543601</v>
-      </c>
-      <c r="C10">
-        <v>365.70851997715101</v>
-      </c>
-      <c r="D10">
-        <v>35.371838118252498</v>
-      </c>
-      <c r="E10">
-        <v>245.68213931395201</v>
-      </c>
-      <c r="F10">
-        <v>24.477603939001501</v>
-      </c>
-      <c r="G10">
-        <v>693.40746475062303</v>
-      </c>
-      <c r="H10">
-        <v>18.350185923683899</v>
-      </c>
-      <c r="I10">
-        <v>490.74985719868903</v>
-      </c>
-      <c r="J10">
-        <v>24.000913450559501</v>
-      </c>
-      <c r="K10">
-        <v>342.97868502540302</v>
-      </c>
-      <c r="L10">
-        <v>17.7213702080407</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>526.74894026395702</v>
-      </c>
-      <c r="B11">
-        <v>28.846800300663599</v>
-      </c>
-      <c r="C11">
-        <v>390.43757327961998</v>
-      </c>
-      <c r="D11">
-        <v>42.261497296590299</v>
-      </c>
-      <c r="E11">
-        <v>261.96712563508999</v>
-      </c>
-      <c r="F11">
-        <v>30.087980107052399</v>
-      </c>
-      <c r="G11">
-        <v>746.48445720470102</v>
-      </c>
-      <c r="H11">
-        <v>25.191205951653501</v>
-      </c>
-      <c r="I11">
-        <v>519.09779635029895</v>
-      </c>
-      <c r="J11">
-        <v>29.4764913945389</v>
-      </c>
-      <c r="K11">
-        <v>370.723476535489</v>
-      </c>
-      <c r="L11">
-        <v>24.532104808522899</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>561.73150347232604</v>
-      </c>
-      <c r="B12">
-        <v>35.586372415158102</v>
-      </c>
-      <c r="C12">
-        <v>420.59495535579998</v>
-      </c>
-      <c r="D12">
-        <v>49.076928042918802</v>
-      </c>
-      <c r="E12">
-        <v>276.44266903165601</v>
-      </c>
-      <c r="F12">
-        <v>35.631067060346801</v>
-      </c>
-      <c r="G12">
-        <v>796.54571145116097</v>
-      </c>
-      <c r="H12">
-        <v>31.859674243780201</v>
-      </c>
-      <c r="I12">
-        <v>546.84258786038504</v>
-      </c>
-      <c r="J12">
-        <v>34.9980102127207</v>
-      </c>
-      <c r="K12">
-        <v>397.86512040405199</v>
-      </c>
-      <c r="L12">
-        <v>31.247303272879901</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>600.33295252983805</v>
-      </c>
-      <c r="B13">
-        <v>42.6920222022449</v>
-      </c>
-      <c r="C13">
-        <v>455.57751856417002</v>
-      </c>
-      <c r="D13">
-        <v>55.839322954956401</v>
-      </c>
-      <c r="E13">
-        <v>290.918212428223</v>
-      </c>
-      <c r="F13">
-        <v>41.185185032453802</v>
-      </c>
-      <c r="G13">
-        <v>845.40067041457405</v>
-      </c>
-      <c r="H13">
-        <v>38.5561309196842</v>
-      </c>
-      <c r="I13">
-        <v>574.58737937047101</v>
-      </c>
-      <c r="J13">
-        <v>40.510915116989501</v>
-      </c>
-      <c r="K13">
-        <v>423.800468989568</v>
-      </c>
-      <c r="L13">
-        <v>38.001394863692198</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>649.79105913477395</v>
-      </c>
-      <c r="B14">
-        <v>49.054056686231903</v>
-      </c>
-      <c r="C14">
-        <v>491.76637705558699</v>
-      </c>
-      <c r="D14">
-        <v>62.781428992164599</v>
-      </c>
-      <c r="E14">
-        <v>307.80634639088402</v>
-      </c>
-      <c r="F14">
-        <v>46.838582173873597</v>
-      </c>
-      <c r="G14">
-        <v>894.85877701950994</v>
-      </c>
-      <c r="H14">
-        <v>45.311394649142997</v>
-      </c>
-      <c r="I14">
-        <v>602.33217088055699</v>
-      </c>
-      <c r="J14">
-        <v>46.000849584157201</v>
-      </c>
-      <c r="K14">
-        <v>449.13266993355899</v>
-      </c>
-      <c r="L14">
-        <v>44.7154622080404</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>705.28064215494703</v>
-      </c>
-      <c r="B15">
-        <v>55.767456501359398</v>
-      </c>
-      <c r="C15">
-        <v>533.383564320716</v>
-      </c>
-      <c r="D15">
-        <v>69.516905402583902</v>
-      </c>
-      <c r="E15">
-        <v>327.71021856116403</v>
-      </c>
-      <c r="F15">
-        <v>52.155857683241003</v>
-      </c>
-      <c r="G15">
-        <v>946.72947419054196</v>
-      </c>
-      <c r="H15">
-        <v>52.001876276824902</v>
-      </c>
-      <c r="I15">
-        <v>630.07696239064398</v>
-      </c>
-      <c r="J15">
-        <v>51.355832733355903</v>
-      </c>
-      <c r="K15">
-        <v>474.46487087755099</v>
-      </c>
-      <c r="L15">
-        <v>51.426384790166402</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>758.35763460902501</v>
-      </c>
-      <c r="B16">
-        <v>62.642055834744802</v>
-      </c>
-      <c r="C16">
-        <v>579.22278507651095</v>
-      </c>
-      <c r="D16">
-        <v>76.402002881412798</v>
-      </c>
-      <c r="E16">
-        <v>348.21723837296702</v>
-      </c>
-      <c r="F16">
-        <v>57.555865833702399</v>
-      </c>
-      <c r="G16">
-        <v>1002.01612903225</v>
-      </c>
-      <c r="H16">
-        <v>58.940397350993301</v>
-      </c>
-      <c r="I16">
-        <v>658.42490154225402</v>
-      </c>
-      <c r="J16">
-        <v>56.822796763422403</v>
-      </c>
-      <c r="K16">
-        <v>502.81281002916103</v>
-      </c>
-      <c r="L16">
-        <v>58.491576931860102</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>815.05351291224497</v>
-      </c>
-      <c r="B17">
-        <v>69.530361196429496</v>
-      </c>
-      <c r="C17">
-        <v>632.90292517211299</v>
-      </c>
-      <c r="D17">
-        <v>82.876596192667193</v>
-      </c>
-      <c r="E17">
-        <v>368.72425818476898</v>
-      </c>
-      <c r="F17">
-        <v>62.959767284921199</v>
-      </c>
-      <c r="I17">
-        <v>687.37598833538698</v>
-      </c>
-      <c r="J17">
-        <v>62.3949223258426</v>
-      </c>
-      <c r="K17">
-        <v>537.79537323753095</v>
-      </c>
-      <c r="L17">
-        <v>64.935398832264497</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>876.57457234765297</v>
-      </c>
-      <c r="B18">
-        <v>75.598719310238096</v>
-      </c>
-      <c r="C18">
-        <v>694.42398460752099</v>
-      </c>
-      <c r="D18">
-        <v>88.838537419107794</v>
-      </c>
-      <c r="E18">
-        <v>389.23127799657198</v>
-      </c>
-      <c r="F18">
-        <v>68.359775435382602</v>
-      </c>
-      <c r="I18">
-        <v>725.97743739289899</v>
-      </c>
-      <c r="J18">
-        <v>67.825061873931404</v>
-      </c>
-      <c r="K18">
-        <v>576.39682229504206</v>
-      </c>
-      <c r="L18">
-        <v>71.721009517167303</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>938.095631783062</v>
-      </c>
-      <c r="B19">
-        <v>80.6431393248604</v>
-      </c>
-      <c r="C19">
-        <v>755.94504404293002</v>
-      </c>
-      <c r="D19">
-        <v>93.625999583744203</v>
-      </c>
-      <c r="E19">
-        <v>414.56347894056398</v>
-      </c>
-      <c r="F19">
-        <v>73.868328810959198</v>
-      </c>
-      <c r="I19">
-        <v>774.22924871478801</v>
-      </c>
-      <c r="J19">
-        <v>73.208973417354301</v>
-      </c>
-      <c r="K19">
-        <v>624.64863361693097</v>
-      </c>
-      <c r="L19">
-        <v>78.655898133804001</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>986.95059074647497</v>
-      </c>
-      <c r="B20">
-        <v>84.053930341693501</v>
-      </c>
-      <c r="C20">
-        <v>817.46610347833905</v>
-      </c>
-      <c r="D20">
-        <v>97.111801528502596</v>
-      </c>
-      <c r="E20">
-        <v>445.32400865826901</v>
-      </c>
-      <c r="F20">
-        <v>79.215046658592499</v>
-      </c>
-      <c r="I20">
-        <v>827.90938881038903</v>
-      </c>
-      <c r="J20">
-        <v>78.634867536443195</v>
-      </c>
-      <c r="K20">
-        <v>684.36025012776895</v>
-      </c>
-      <c r="L20">
-        <v>85.191511783669498</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C21">
-        <v>878.98716291374797</v>
-      </c>
-      <c r="D21">
-        <v>98.312483122388102</v>
-      </c>
-      <c r="E21">
-        <v>476.68768601749599</v>
-      </c>
-      <c r="F21">
-        <v>84.642307914355499</v>
-      </c>
-      <c r="I21">
-        <v>888.22415296275096</v>
-      </c>
-      <c r="J21">
-        <v>84.009266174144003</v>
-      </c>
-      <c r="K21">
-        <v>745.88130956317798</v>
-      </c>
-      <c r="L21">
-        <v>90.178109106953997</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C22">
-        <v>940.50822234915597</v>
-      </c>
-      <c r="D22">
-        <v>99.040283170316002</v>
-      </c>
-      <c r="E22">
-        <v>517.09857799957899</v>
-      </c>
-      <c r="F22">
-        <v>90.246582873502206</v>
-      </c>
-      <c r="I22">
-        <v>949.74521239815999</v>
-      </c>
-      <c r="J22">
-        <v>87.871959113042905</v>
-      </c>
-      <c r="K22">
-        <v>807.40236899858701</v>
-      </c>
-      <c r="L22">
-        <v>93.578592630215994</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C23">
-        <v>988.15688602952196</v>
-      </c>
-      <c r="D23">
-        <v>99.399810955730999</v>
-      </c>
-      <c r="E23">
-        <v>566.556684604515</v>
-      </c>
-      <c r="F23">
-        <v>94.627780686750398</v>
-      </c>
-      <c r="I23">
-        <v>992.568694946336</v>
-      </c>
-      <c r="J23">
-        <v>90.176302129944503</v>
-      </c>
-      <c r="K23">
-        <v>868.92342843399501</v>
-      </c>
-      <c r="L23">
-        <v>95.817478346393102</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E24">
-        <v>616.01479120945203</v>
-      </c>
-      <c r="F24">
-        <v>97.912871898968604</v>
-      </c>
-      <c r="K24">
-        <v>930.44448786940404</v>
-      </c>
-      <c r="L24">
-        <v>97.383014974998105</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E25">
-        <v>665.47289781438803</v>
-      </c>
-      <c r="F25">
-        <v>98.987992659330899</v>
-      </c>
-      <c r="K25">
-        <v>982.91833268195796</v>
-      </c>
-      <c r="L25">
-        <v>98.239053165977097</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E26">
-        <v>714.93100441932404</v>
-      </c>
-      <c r="F26">
-        <v>99.685368287673995</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E27">
-        <v>764.38911102426096</v>
-      </c>
-      <c r="F27">
-        <v>99.785454604704796</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E28">
-        <v>813.84721762919696</v>
-      </c>
-      <c r="F28">
-        <v>99.837112058656103</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E29">
-        <v>863.30532423413399</v>
-      </c>
-      <c r="F29">
-        <v>99.837112058656103</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E30">
-        <v>912.76343083907</v>
-      </c>
-      <c r="F30">
-        <v>99.904912466967204</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E31">
-        <v>962.22153744400703</v>
-      </c>
-      <c r="F31">
-        <v>99.856483603887895</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E32">
-        <v>995.99780536932894</v>
-      </c>
-      <c r="F32">
-        <v>99.841524466181099</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="M4" r:id="rId1" xr:uid="{EE64964D-0873-9C48-8876-0F585857FE5E}"/>
-    <hyperlink ref="M5:M10" r:id="rId2" display="https://web.archive.org/web/20220814163335/https://theicct.org/wp-content/uploads/2022/07/global-aviation-performance-analysis-regional-electric-aircraft-jul22-1.pdf-1.pdf " xr:uid="{642CAA47-7675-DD4E-B92C-A36FB7D004AA}"/>
-    <hyperlink ref="M11:M20" r:id="rId3" display="https://web.archive.org/web/20220814163335/https://theicct.org/wp-content/uploads/2022/07/global-aviation-performance-analysis-regional-electric-aircraft-jul22-1.pdf-1.pdf " xr:uid="{D2740111-E983-1A44-900D-63C987C1AEA7}"/>
-    <hyperlink ref="M2:M3" r:id="rId4" display="https://web.archive.org/web/20220814163335/https://theicct.org/wp-content/uploads/2022/07/global-aviation-performance-analysis-regional-electric-aircraft-jul22-1.pdf-1.pdf " xr:uid="{C22535D5-39B7-5C4C-8101-73FAE3E8CBB7}"/>
-    <hyperlink ref="M21:M32" r:id="rId5" display="https://web.archive.org/web/20220814163335/https://theicct.org/wp-content/uploads/2022/07/global-aviation-performance-analysis-regional-electric-aircraft-jul22-1.pdf-1.pdf " xr:uid="{036948AA-E5BD-1F43-A935-83F7C68B7F95}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A2A797F-A70C-634C-87CC-6949F5EDCE04}">
   <dimension ref="A1:N12"/>
@@ -3713,54 +3097,54 @@
         <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="D1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="F1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="G1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="H1" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="I1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="J1" t="s">
         <v>15</v>
       </c>
       <c r="K1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M1" t="s">
         <v>4</v>
       </c>
       <c r="N1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D2">
         <v>300</v>
@@ -3773,28 +3157,28 @@
         <v>350</v>
       </c>
       <c r="G2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="N2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -3802,10 +3186,10 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C3" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D3">
         <v>1200</v>
@@ -3814,32 +3198,32 @@
         <v>1800</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F4" si="0">(D3+E3)/2</f>
+        <f>(D3+E3)/2</f>
         <v>1500</v>
       </c>
       <c r="G3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="N3" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -3847,10 +3231,10 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D4">
         <v>1800</v>
@@ -3859,32 +3243,32 @@
         <v>2500</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f>(D4+E4)/2</f>
         <v>2150</v>
       </c>
       <c r="G4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="N4" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -3892,22 +3276,22 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F5">
         <v>650</v>
       </c>
       <c r="G5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I5">
         <v>330</v>
@@ -3920,7 +3304,7 @@
         <v>19</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -3928,22 +3312,22 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F6">
         <v>1500</v>
       </c>
       <c r="G6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I6">
         <v>860</v>
@@ -3956,7 +3340,7 @@
         <v>104</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -3964,22 +3348,22 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F7">
         <v>2300</v>
       </c>
       <c r="G7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I7">
         <v>1800</v>
@@ -3992,7 +3376,7 @@
         <v>191</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -4000,22 +3384,22 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F8">
         <v>5100</v>
       </c>
       <c r="G8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I8">
         <v>3600</v>
@@ -4028,7 +3412,7 @@
         <v>375</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -4036,40 +3420,40 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F9">
         <v>600</v>
       </c>
       <c r="G9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K9">
         <v>500</v>
       </c>
       <c r="L9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="N9" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -4077,40 +3461,40 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F10">
         <v>820</v>
       </c>
       <c r="G10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K10">
         <v>1000</v>
       </c>
       <c r="L10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="N10" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -4118,40 +3502,40 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F11">
         <v>1280</v>
       </c>
       <c r="G11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="L11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="N11" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -4159,40 +3543,40 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F12">
         <v>800</v>
       </c>
       <c r="G12" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" t="s">
+        <v>90</v>
+      </c>
+      <c r="J12" t="s">
+        <v>90</v>
+      </c>
+      <c r="K12" t="s">
         <v>93</v>
-      </c>
-      <c r="H12" t="s">
-        <v>93</v>
-      </c>
-      <c r="I12" t="s">
-        <v>93</v>
-      </c>
-      <c r="J12" t="s">
-        <v>93</v>
-      </c>
-      <c r="K12" t="s">
-        <v>96</v>
       </c>
       <c r="L12">
         <v>180</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="N12" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -4204,4 +3588,1021 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EC74511-5D70-DF41-8E76-21400F73FA0F}">
+  <dimension ref="A1:M32"/>
+  <sheetViews>
+    <sheetView zoomScale="135" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>10</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>128.671496858371</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>137.115563839701</v>
+      </c>
+      <c r="D4">
+        <v>0.30221468458560702</v>
+      </c>
+      <c r="E4">
+        <v>22.517511950214899</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>330.91573219493102</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>211.492499173255</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>30.5482067161713</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>190.19255629377901</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>198.63662327511</v>
+      </c>
+      <c r="D5">
+        <v>1.79881354081213</v>
+      </c>
+      <c r="E5">
+        <v>71.9756185551513</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>392.43679163034</v>
+      </c>
+      <c r="H5">
+        <v>7.75973103794598E-2</v>
+      </c>
+      <c r="I5">
+        <v>273.01355860866403</v>
+      </c>
+      <c r="J5">
+        <v>0.20231179729054799</v>
+      </c>
+      <c r="K5">
+        <v>92.069266151579995</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>251.71361572918801</v>
+      </c>
+      <c r="B6">
+        <v>0.52216145800666403</v>
+      </c>
+      <c r="C6">
+        <v>249.90417280461699</v>
+      </c>
+      <c r="D6">
+        <v>8.4710765352582609</v>
+      </c>
+      <c r="E6">
+        <v>131.04838709677401</v>
+      </c>
+      <c r="F6">
+        <v>3.3185840707964598</v>
+      </c>
+      <c r="G6">
+        <v>455.64516129032199</v>
+      </c>
+      <c r="H6">
+        <v>1.1037527593819101</v>
+      </c>
+      <c r="I6">
+        <v>334.534618044073</v>
+      </c>
+      <c r="J6">
+        <v>2.9035772470346402</v>
+      </c>
+      <c r="K6">
+        <v>153.590325586988</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>313.23467516459698</v>
+      </c>
+      <c r="B7">
+        <v>3.4627056017226301</v>
+      </c>
+      <c r="C7">
+        <v>287.90247422060497</v>
+      </c>
+      <c r="D7">
+        <v>15.0892179416481</v>
+      </c>
+      <c r="E7">
+        <v>169.68553648197701</v>
+      </c>
+      <c r="F7">
+        <v>7.8418093218215397</v>
+      </c>
+      <c r="G7">
+        <v>502.01612903225799</v>
+      </c>
+      <c r="H7">
+        <v>1.98675496688743</v>
+      </c>
+      <c r="I7">
+        <v>391.23049634729199</v>
+      </c>
+      <c r="J7">
+        <v>7.1468894238242697</v>
+      </c>
+      <c r="K7">
+        <v>215.111385022397</v>
+      </c>
+      <c r="L7">
+        <v>0.34543883898429301</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>374.75573460000601</v>
+      </c>
+      <c r="B8">
+        <v>9.1024401414104794</v>
+      </c>
+      <c r="C8">
+        <v>317.45670865526199</v>
+      </c>
+      <c r="D8">
+        <v>21.889726925582899</v>
+      </c>
+      <c r="E8">
+        <v>205.27124733187</v>
+      </c>
+      <c r="F8">
+        <v>12.9082714084239</v>
+      </c>
+      <c r="G8">
+        <v>602.822580645161</v>
+      </c>
+      <c r="H8">
+        <v>7.7262693156733002</v>
+      </c>
+      <c r="I8">
+        <v>431.64138832937499</v>
+      </c>
+      <c r="J8">
+        <v>13.1428356879373</v>
+      </c>
+      <c r="K8">
+        <v>273.01355860866403</v>
+      </c>
+      <c r="L8">
+        <v>3.9697386772061298</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>432.657908186273</v>
+      </c>
+      <c r="B9">
+        <v>15.3880444374799</v>
+      </c>
+      <c r="C9">
+        <v>341.58261431620701</v>
+      </c>
+      <c r="D9">
+        <v>28.634091827561399</v>
+      </c>
+      <c r="E9">
+        <v>226.98456242672</v>
+      </c>
+      <c r="F9">
+        <v>18.957682125213399</v>
+      </c>
+      <c r="G9">
+        <v>636.71158644740399</v>
+      </c>
+      <c r="H9">
+        <v>11.7532438810128</v>
+      </c>
+      <c r="I9">
+        <v>461.19562276403201</v>
+      </c>
+      <c r="J9">
+        <v>18.575066502903901</v>
+      </c>
+      <c r="K9">
+        <v>314.63074587379299</v>
+      </c>
+      <c r="L9">
+        <v>10.7708987818602</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>484.52860535730298</v>
+      </c>
+      <c r="B10">
+        <v>21.924757136543601</v>
+      </c>
+      <c r="C10">
+        <v>365.70851997715101</v>
+      </c>
+      <c r="D10">
+        <v>35.371838118252498</v>
+      </c>
+      <c r="E10">
+        <v>245.68213931395201</v>
+      </c>
+      <c r="F10">
+        <v>24.477603939001501</v>
+      </c>
+      <c r="G10">
+        <v>693.40746475062303</v>
+      </c>
+      <c r="H10">
+        <v>18.350185923683899</v>
+      </c>
+      <c r="I10">
+        <v>490.74985719868903</v>
+      </c>
+      <c r="J10">
+        <v>24.000913450559501</v>
+      </c>
+      <c r="K10">
+        <v>342.97868502540302</v>
+      </c>
+      <c r="L10">
+        <v>17.7213702080407</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>526.74894026395702</v>
+      </c>
+      <c r="B11">
+        <v>28.846800300663599</v>
+      </c>
+      <c r="C11">
+        <v>390.43757327961998</v>
+      </c>
+      <c r="D11">
+        <v>42.261497296590299</v>
+      </c>
+      <c r="E11">
+        <v>261.96712563508999</v>
+      </c>
+      <c r="F11">
+        <v>30.087980107052399</v>
+      </c>
+      <c r="G11">
+        <v>746.48445720470102</v>
+      </c>
+      <c r="H11">
+        <v>25.191205951653501</v>
+      </c>
+      <c r="I11">
+        <v>519.09779635029895</v>
+      </c>
+      <c r="J11">
+        <v>29.4764913945389</v>
+      </c>
+      <c r="K11">
+        <v>370.723476535489</v>
+      </c>
+      <c r="L11">
+        <v>24.532104808522899</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>561.73150347232604</v>
+      </c>
+      <c r="B12">
+        <v>35.586372415158102</v>
+      </c>
+      <c r="C12">
+        <v>420.59495535579998</v>
+      </c>
+      <c r="D12">
+        <v>49.076928042918802</v>
+      </c>
+      <c r="E12">
+        <v>276.44266903165601</v>
+      </c>
+      <c r="F12">
+        <v>35.631067060346801</v>
+      </c>
+      <c r="G12">
+        <v>796.54571145116097</v>
+      </c>
+      <c r="H12">
+        <v>31.859674243780201</v>
+      </c>
+      <c r="I12">
+        <v>546.84258786038504</v>
+      </c>
+      <c r="J12">
+        <v>34.9980102127207</v>
+      </c>
+      <c r="K12">
+        <v>397.86512040405199</v>
+      </c>
+      <c r="L12">
+        <v>31.247303272879901</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>600.33295252983805</v>
+      </c>
+      <c r="B13">
+        <v>42.6920222022449</v>
+      </c>
+      <c r="C13">
+        <v>455.57751856417002</v>
+      </c>
+      <c r="D13">
+        <v>55.839322954956401</v>
+      </c>
+      <c r="E13">
+        <v>290.918212428223</v>
+      </c>
+      <c r="F13">
+        <v>41.185185032453802</v>
+      </c>
+      <c r="G13">
+        <v>845.40067041457405</v>
+      </c>
+      <c r="H13">
+        <v>38.5561309196842</v>
+      </c>
+      <c r="I13">
+        <v>574.58737937047101</v>
+      </c>
+      <c r="J13">
+        <v>40.510915116989501</v>
+      </c>
+      <c r="K13">
+        <v>423.800468989568</v>
+      </c>
+      <c r="L13">
+        <v>38.001394863692198</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>649.79105913477395</v>
+      </c>
+      <c r="B14">
+        <v>49.054056686231903</v>
+      </c>
+      <c r="C14">
+        <v>491.76637705558699</v>
+      </c>
+      <c r="D14">
+        <v>62.781428992164599</v>
+      </c>
+      <c r="E14">
+        <v>307.80634639088402</v>
+      </c>
+      <c r="F14">
+        <v>46.838582173873597</v>
+      </c>
+      <c r="G14">
+        <v>894.85877701950994</v>
+      </c>
+      <c r="H14">
+        <v>45.311394649142997</v>
+      </c>
+      <c r="I14">
+        <v>602.33217088055699</v>
+      </c>
+      <c r="J14">
+        <v>46.000849584157201</v>
+      </c>
+      <c r="K14">
+        <v>449.13266993355899</v>
+      </c>
+      <c r="L14">
+        <v>44.7154622080404</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>705.28064215494703</v>
+      </c>
+      <c r="B15">
+        <v>55.767456501359398</v>
+      </c>
+      <c r="C15">
+        <v>533.383564320716</v>
+      </c>
+      <c r="D15">
+        <v>69.516905402583902</v>
+      </c>
+      <c r="E15">
+        <v>327.71021856116403</v>
+      </c>
+      <c r="F15">
+        <v>52.155857683241003</v>
+      </c>
+      <c r="G15">
+        <v>946.72947419054196</v>
+      </c>
+      <c r="H15">
+        <v>52.001876276824902</v>
+      </c>
+      <c r="I15">
+        <v>630.07696239064398</v>
+      </c>
+      <c r="J15">
+        <v>51.355832733355903</v>
+      </c>
+      <c r="K15">
+        <v>474.46487087755099</v>
+      </c>
+      <c r="L15">
+        <v>51.426384790166402</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>758.35763460902501</v>
+      </c>
+      <c r="B16">
+        <v>62.642055834744802</v>
+      </c>
+      <c r="C16">
+        <v>579.22278507651095</v>
+      </c>
+      <c r="D16">
+        <v>76.402002881412798</v>
+      </c>
+      <c r="E16">
+        <v>348.21723837296702</v>
+      </c>
+      <c r="F16">
+        <v>57.555865833702399</v>
+      </c>
+      <c r="G16">
+        <v>1002.01612903225</v>
+      </c>
+      <c r="H16">
+        <v>58.940397350993301</v>
+      </c>
+      <c r="I16">
+        <v>658.42490154225402</v>
+      </c>
+      <c r="J16">
+        <v>56.822796763422403</v>
+      </c>
+      <c r="K16">
+        <v>502.81281002916103</v>
+      </c>
+      <c r="L16">
+        <v>58.491576931860102</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>815.05351291224497</v>
+      </c>
+      <c r="B17">
+        <v>69.530361196429496</v>
+      </c>
+      <c r="C17">
+        <v>632.90292517211299</v>
+      </c>
+      <c r="D17">
+        <v>82.876596192667193</v>
+      </c>
+      <c r="E17">
+        <v>368.72425818476898</v>
+      </c>
+      <c r="F17">
+        <v>62.959767284921199</v>
+      </c>
+      <c r="I17">
+        <v>687.37598833538698</v>
+      </c>
+      <c r="J17">
+        <v>62.3949223258426</v>
+      </c>
+      <c r="K17">
+        <v>537.79537323753095</v>
+      </c>
+      <c r="L17">
+        <v>64.935398832264497</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>876.57457234765297</v>
+      </c>
+      <c r="B18">
+        <v>75.598719310238096</v>
+      </c>
+      <c r="C18">
+        <v>694.42398460752099</v>
+      </c>
+      <c r="D18">
+        <v>88.838537419107794</v>
+      </c>
+      <c r="E18">
+        <v>389.23127799657198</v>
+      </c>
+      <c r="F18">
+        <v>68.359775435382602</v>
+      </c>
+      <c r="I18">
+        <v>725.97743739289899</v>
+      </c>
+      <c r="J18">
+        <v>67.825061873931404</v>
+      </c>
+      <c r="K18">
+        <v>576.39682229504206</v>
+      </c>
+      <c r="L18">
+        <v>71.721009517167303</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>938.095631783062</v>
+      </c>
+      <c r="B19">
+        <v>80.6431393248604</v>
+      </c>
+      <c r="C19">
+        <v>755.94504404293002</v>
+      </c>
+      <c r="D19">
+        <v>93.625999583744203</v>
+      </c>
+      <c r="E19">
+        <v>414.56347894056398</v>
+      </c>
+      <c r="F19">
+        <v>73.868328810959198</v>
+      </c>
+      <c r="I19">
+        <v>774.22924871478801</v>
+      </c>
+      <c r="J19">
+        <v>73.208973417354301</v>
+      </c>
+      <c r="K19">
+        <v>624.64863361693097</v>
+      </c>
+      <c r="L19">
+        <v>78.655898133804001</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>986.95059074647497</v>
+      </c>
+      <c r="B20">
+        <v>84.053930341693501</v>
+      </c>
+      <c r="C20">
+        <v>817.46610347833905</v>
+      </c>
+      <c r="D20">
+        <v>97.111801528502596</v>
+      </c>
+      <c r="E20">
+        <v>445.32400865826901</v>
+      </c>
+      <c r="F20">
+        <v>79.215046658592499</v>
+      </c>
+      <c r="I20">
+        <v>827.90938881038903</v>
+      </c>
+      <c r="J20">
+        <v>78.634867536443195</v>
+      </c>
+      <c r="K20">
+        <v>684.36025012776895</v>
+      </c>
+      <c r="L20">
+        <v>85.191511783669498</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <v>878.98716291374797</v>
+      </c>
+      <c r="D21">
+        <v>98.312483122388102</v>
+      </c>
+      <c r="E21">
+        <v>476.68768601749599</v>
+      </c>
+      <c r="F21">
+        <v>84.642307914355499</v>
+      </c>
+      <c r="I21">
+        <v>888.22415296275096</v>
+      </c>
+      <c r="J21">
+        <v>84.009266174144003</v>
+      </c>
+      <c r="K21">
+        <v>745.88130956317798</v>
+      </c>
+      <c r="L21">
+        <v>90.178109106953997</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <v>940.50822234915597</v>
+      </c>
+      <c r="D22">
+        <v>99.040283170316002</v>
+      </c>
+      <c r="E22">
+        <v>517.09857799957899</v>
+      </c>
+      <c r="F22">
+        <v>90.246582873502206</v>
+      </c>
+      <c r="I22">
+        <v>949.74521239815999</v>
+      </c>
+      <c r="J22">
+        <v>87.871959113042905</v>
+      </c>
+      <c r="K22">
+        <v>807.40236899858701</v>
+      </c>
+      <c r="L22">
+        <v>93.578592630215994</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <v>988.15688602952196</v>
+      </c>
+      <c r="D23">
+        <v>99.399810955730999</v>
+      </c>
+      <c r="E23">
+        <v>566.556684604515</v>
+      </c>
+      <c r="F23">
+        <v>94.627780686750398</v>
+      </c>
+      <c r="I23">
+        <v>992.568694946336</v>
+      </c>
+      <c r="J23">
+        <v>90.176302129944503</v>
+      </c>
+      <c r="K23">
+        <v>868.92342843399501</v>
+      </c>
+      <c r="L23">
+        <v>95.817478346393102</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <v>616.01479120945203</v>
+      </c>
+      <c r="F24">
+        <v>97.912871898968604</v>
+      </c>
+      <c r="K24">
+        <v>930.44448786940404</v>
+      </c>
+      <c r="L24">
+        <v>97.383014974998105</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E25">
+        <v>665.47289781438803</v>
+      </c>
+      <c r="F25">
+        <v>98.987992659330899</v>
+      </c>
+      <c r="K25">
+        <v>982.91833268195796</v>
+      </c>
+      <c r="L25">
+        <v>98.239053165977097</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E26">
+        <v>714.93100441932404</v>
+      </c>
+      <c r="F26">
+        <v>99.685368287673995</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E27">
+        <v>764.38911102426096</v>
+      </c>
+      <c r="F27">
+        <v>99.785454604704796</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E28">
+        <v>813.84721762919696</v>
+      </c>
+      <c r="F28">
+        <v>99.837112058656103</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E29">
+        <v>863.30532423413399</v>
+      </c>
+      <c r="F29">
+        <v>99.837112058656103</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E30">
+        <v>912.76343083907</v>
+      </c>
+      <c r="F30">
+        <v>99.904912466967204</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E31">
+        <v>962.22153744400703</v>
+      </c>
+      <c r="F31">
+        <v>99.856483603887895</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E32">
+        <v>995.99780536932894</v>
+      </c>
+      <c r="F32">
+        <v>99.841524466181099</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M4" r:id="rId1" xr:uid="{EE64964D-0873-9C48-8876-0F585857FE5E}"/>
+    <hyperlink ref="M5:M10" r:id="rId2" display="https://web.archive.org/web/20220814163335/https://theicct.org/wp-content/uploads/2022/07/global-aviation-performance-analysis-regional-electric-aircraft-jul22-1.pdf-1.pdf " xr:uid="{642CAA47-7675-DD4E-B92C-A36FB7D004AA}"/>
+    <hyperlink ref="M11:M20" r:id="rId3" display="https://web.archive.org/web/20220814163335/https://theicct.org/wp-content/uploads/2022/07/global-aviation-performance-analysis-regional-electric-aircraft-jul22-1.pdf-1.pdf " xr:uid="{D2740111-E983-1A44-900D-63C987C1AEA7}"/>
+    <hyperlink ref="M2:M3" r:id="rId4" display="https://web.archive.org/web/20220814163335/https://theicct.org/wp-content/uploads/2022/07/global-aviation-performance-analysis-regional-electric-aircraft-jul22-1.pdf-1.pdf " xr:uid="{C22535D5-39B7-5C4C-8101-73FAE3E8CBB7}"/>
+    <hyperlink ref="M21:M32" r:id="rId5" display="https://web.archive.org/web/20220814163335/https://theicct.org/wp-content/uploads/2022/07/global-aviation-performance-analysis-regional-electric-aircraft-jul22-1.pdf-1.pdf " xr:uid="{036948AA-E5BD-1F43-A935-83F7C68B7F95}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>